--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96C040-334C-4B1C-A9F5-20A32EF815C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8577C62A-EDB5-46A6-BC3F-4D46D71B843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="44">
   <si>
     <t>Vakken</t>
   </si>
@@ -195,13 +195,19 @@
     <t>US BY NIGHT betalen en excel sheet invullen (zie mededeling)</t>
   </si>
   <si>
-    <t>Met theo naar coole winkel gaan in antwerpen</t>
-  </si>
-  <si>
     <t>Vanaf ISP: studio digitaal kalender toevoegen hier, meer accuraat als acadmische kalender</t>
   </si>
   <si>
     <t>Geen les in namiddag</t>
+  </si>
+  <si>
+    <t>Agenda leeg</t>
+  </si>
+  <si>
+    <t>Agenda leeg vanaf hier en volgende maanden</t>
+  </si>
+  <si>
+    <t>Met theo naar coole winkel gaan in antwerpen?</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -372,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,19 +415,19 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
@@ -429,11 +435,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -444,33 +455,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89992980742820516"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89992980742820516"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <b/>
@@ -1336,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654A742E-D028-4DEA-B292-287A1772CFA0}">
   <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,9 +1483,6 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H9" s="15"/>
-      <c r="M9" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
@@ -1523,8 +1505,8 @@
       <c r="J10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="4">
-        <v>204</v>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -1546,7 +1528,9 @@
       <c r="J11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="4">
+        <v>204</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
@@ -1635,10 +1619,10 @@
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="16">
@@ -1648,10 +1632,10 @@
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="15"/>
@@ -1659,8 +1643,8 @@
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="D20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="D20" s="37"/>
       <c r="H20" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -1964,8 +1948,8 @@
       <c r="O48" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I31:O31 I7:O7">
-    <cfRule type="timePeriod" dxfId="42" priority="1" timePeriod="today">
+  <conditionalFormatting sqref="I7:O7 I31:O31">
+    <cfRule type="timePeriod" dxfId="40" priority="1" timePeriod="today">
       <formula>FLOOR(I7,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1978,7 +1962,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,9 +2061,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -2093,8 +2074,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -2107,7 +2088,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -2138,6 +2121,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2149,6 +2135,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2160,6 +2149,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2169,6 +2159,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -2177,11 +2168,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -2192,11 +2185,12 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -2206,11 +2200,12 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -2220,16 +2215,18 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -2238,20 +2235,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -2260,16 +2259,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -2489,7 +2490,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="31" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -2503,7 +2504,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,9 +2603,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -2618,8 +2616,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -2632,7 +2630,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -2663,6 +2663,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2674,6 +2677,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2685,6 +2691,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2694,6 +2701,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -2702,11 +2710,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -2718,10 +2728,14 @@
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -2731,11 +2745,15 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="38">
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -2745,16 +2763,24 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -2767,6 +2793,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -2777,6 +2805,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -2787,6 +2817,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -2795,6 +2827,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -3014,7 +3048,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="30" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -3028,7 +3062,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,9 +3161,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -3143,8 +3174,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -3157,7 +3188,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -3188,6 +3221,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -3199,6 +3235,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -3210,6 +3249,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -3219,6 +3259,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3227,11 +3268,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -3242,11 +3285,12 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -3256,11 +3300,12 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -3270,16 +3315,18 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -3288,20 +3335,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -3310,16 +3359,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -3539,7 +3590,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="29" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -3553,7 +3604,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,9 +3703,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -3668,8 +3716,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -3682,7 +3730,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -3713,6 +3763,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -3724,6 +3777,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -3735,6 +3791,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -3744,6 +3801,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3752,11 +3810,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -3768,10 +3828,14 @@
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -3781,11 +3845,15 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="38">
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -3795,16 +3863,24 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -3817,6 +3893,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -3827,6 +3905,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -3837,6 +3917,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -3845,6 +3927,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -4064,7 +4148,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="28" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -4078,7 +4162,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,9 +4261,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -4193,8 +4274,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -4207,7 +4288,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -4238,6 +4321,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -4249,6 +4335,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -4260,6 +4349,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -4269,6 +4359,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -4277,11 +4368,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -4292,11 +4385,12 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -4306,11 +4400,12 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -4320,16 +4415,18 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -4338,20 +4435,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -4360,16 +4459,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -4589,7 +4690,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="27" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -4603,7 +4704,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,9 +4803,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -4718,8 +4816,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -4732,7 +4830,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -4763,6 +4863,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -4774,6 +4877,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -4785,6 +4891,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -4794,6 +4901,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -4802,11 +4910,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -4822,6 +4932,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -4837,6 +4951,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -4847,6 +4965,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -4855,6 +4975,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -4867,6 +4989,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -4877,6 +5001,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -4887,6 +5013,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -4895,6 +5023,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -4945,11 +5075,21 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -5114,7 +5254,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="26" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -5128,7 +5268,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,9 +5367,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -5243,8 +5380,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5257,7 +5394,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -5288,6 +5427,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -5299,6 +5441,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -5310,6 +5455,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -5319,6 +5465,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -5327,11 +5474,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -5347,6 +5496,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -5362,6 +5515,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -5372,6 +5529,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -5380,6 +5539,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -5392,6 +5553,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -5402,6 +5565,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -5412,6 +5577,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -5420,6 +5587,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -5468,13 +5637,23 @@
         <v>46026</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -5639,7 +5818,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="25" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -5653,7 +5832,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,9 +5931,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -5768,8 +5944,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5782,7 +5958,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -5813,6 +5991,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -5824,6 +6005,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -5835,6 +6019,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -5844,6 +6029,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -5852,11 +6038,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -5872,6 +6060,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -5887,6 +6079,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -5897,6 +6093,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -5905,6 +6103,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -5917,6 +6117,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -5927,6 +6129,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -5937,6 +6141,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -5945,6 +6151,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -6166,7 +6374,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="24" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -6180,7 +6388,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,9 +6487,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -6295,8 +6500,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -6309,7 +6514,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -6340,6 +6547,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -6351,6 +6561,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -6362,6 +6575,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -6371,6 +6585,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -6379,11 +6594,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -6399,6 +6616,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -6414,6 +6635,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -6424,6 +6649,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -6432,6 +6659,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -6444,6 +6673,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -6454,6 +6685,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -6464,6 +6697,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -6472,6 +6707,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -6691,7 +6928,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="23" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -6702,10 +6939,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F05623-E348-4555-8264-A129D987A943}">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,9 +7041,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -6820,8 +7054,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -6834,7 +7068,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -6865,6 +7101,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -6876,6 +7115,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -6887,6 +7129,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -6896,6 +7139,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -6904,11 +7148,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -6924,6 +7170,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -6939,6 +7189,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -6949,6 +7203,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -6957,6 +7213,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -6969,6 +7227,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -6979,6 +7239,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -6989,6 +7251,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -6997,6 +7261,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -7215,14 +7481,8 @@
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="22" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -7236,7 +7496,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,9 +7595,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -7351,8 +7608,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -7365,7 +7622,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -7451,10 +7710,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -7464,11 +7726,14 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="38">
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -7478,16 +7743,22 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -7500,9 +7771,10 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>34</v>
       </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -7513,9 +7785,10 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>37</v>
       </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -7526,7 +7799,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -7535,7 +7809,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -7591,8 +7866,8 @@
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="33" t="s">
-        <v>39</v>
+      <c r="F30" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -7606,7 +7881,7 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -7639,7 +7914,7 @@
     <row r="34" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -7769,7 +8044,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="39" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -7783,7 +8058,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7882,9 +8157,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -7898,8 +8170,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -7912,7 +8184,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -7943,6 +8217,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -7954,6 +8231,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -7965,6 +8245,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -7974,6 +8255,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7982,11 +8264,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -8002,6 +8286,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -8017,6 +8305,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -8027,6 +8319,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -8035,6 +8329,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -8047,6 +8343,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -8057,6 +8355,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -8067,6 +8367,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -8075,6 +8377,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -8294,7 +8598,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="21" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -8308,7 +8612,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,9 +8711,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -8423,8 +8724,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8437,7 +8738,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -8468,6 +8771,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -8479,6 +8785,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -8490,6 +8799,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8499,6 +8809,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -8507,11 +8818,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -8527,6 +8840,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -8542,6 +8859,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -8552,6 +8873,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -8560,6 +8883,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -8572,6 +8897,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -8582,6 +8909,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -8592,6 +8921,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -8600,6 +8931,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -8819,7 +9152,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="20" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -8833,7 +9166,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8932,9 +9265,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -8948,8 +9278,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8962,7 +9292,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -8993,6 +9325,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -9004,6 +9339,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -9015,6 +9353,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -9024,6 +9363,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -9032,11 +9372,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -9052,6 +9394,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -9067,6 +9413,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -9077,6 +9427,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -9085,6 +9437,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -9097,6 +9451,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -9107,6 +9463,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -9117,6 +9475,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -9125,6 +9485,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -9344,7 +9706,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="19" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -9358,7 +9720,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9457,9 +9819,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -9473,8 +9832,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -9487,7 +9846,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -9518,6 +9879,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -9529,6 +9893,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -9540,6 +9907,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -9549,6 +9917,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -9557,11 +9926,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -9577,6 +9948,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -9592,6 +9967,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -9602,6 +9981,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -9610,6 +9991,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -9622,6 +10005,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -9632,6 +10017,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -9642,6 +10029,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -9650,6 +10039,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -9869,7 +10260,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="18" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -9883,7 +10274,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9982,9 +10373,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -9998,8 +10386,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -10012,7 +10400,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -10043,6 +10433,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -10054,6 +10447,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -10065,6 +10461,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -10074,6 +10471,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -10082,11 +10480,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -10102,6 +10502,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -10117,6 +10521,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -10127,6 +10535,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -10135,6 +10545,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -10147,6 +10559,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -10157,6 +10571,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -10167,6 +10583,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -10175,6 +10593,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -10394,7 +10814,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="17" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -10408,7 +10828,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10507,9 +10927,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -10523,8 +10940,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -10537,7 +10954,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -10568,6 +10987,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -10579,6 +11001,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -10590,6 +11015,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -10599,6 +11025,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -10607,11 +11034,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -10627,6 +11056,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -10642,6 +11075,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -10652,6 +11089,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -10660,6 +11099,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -10672,6 +11113,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -10682,6 +11125,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -10692,6 +11137,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -10700,6 +11147,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -10919,7 +11368,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="16" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -10933,7 +11382,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11032,9 +11481,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -11048,8 +11494,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -11062,7 +11508,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -11093,6 +11541,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -11104,6 +11555,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -11115,6 +11569,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -11124,6 +11579,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -11132,11 +11588,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -11152,6 +11610,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -11167,6 +11629,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -11177,6 +11643,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -11185,6 +11653,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -11197,6 +11667,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -11207,6 +11679,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -11217,6 +11691,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -11225,6 +11701,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -11444,7 +11922,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="15" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -11458,7 +11936,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11557,9 +12035,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -11573,8 +12048,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -11587,7 +12062,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -11618,6 +12095,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -11629,6 +12109,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -11640,6 +12123,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -11649,6 +12133,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -11657,11 +12142,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -11677,6 +12164,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -11692,6 +12183,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -11702,6 +12197,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -11710,6 +12207,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -11722,6 +12221,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -11732,6 +12233,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -11742,6 +12245,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -11750,6 +12255,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -11969,7 +12476,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="14" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -11983,7 +12490,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12082,9 +12589,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -12098,8 +12602,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -12112,7 +12616,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -12143,6 +12649,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -12154,6 +12663,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -12165,6 +12677,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -12174,6 +12687,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12182,11 +12696,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -12202,6 +12718,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -12217,6 +12737,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -12227,6 +12751,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -12235,6 +12761,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -12247,6 +12775,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -12257,6 +12787,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -12267,6 +12799,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -12275,6 +12809,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -12494,7 +13030,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="13" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -12508,7 +13044,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12607,9 +13143,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -12623,8 +13156,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -12637,7 +13170,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -12668,6 +13203,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -12679,6 +13217,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -12690,6 +13231,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -12699,6 +13241,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12707,11 +13250,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -12727,6 +13272,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -12742,6 +13291,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -12752,6 +13305,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -12760,6 +13315,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -12772,6 +13329,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -12782,6 +13341,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -12792,6 +13353,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -12800,6 +13363,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -13019,7 +13584,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="12" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -13033,7 +13598,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13132,9 +13697,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -13148,8 +13710,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13162,7 +13724,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -13193,6 +13757,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -13204,6 +13771,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -13215,6 +13785,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13224,6 +13795,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -13232,11 +13804,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -13247,11 +13821,12 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13261,11 +13836,12 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -13275,16 +13851,18 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -13293,20 +13871,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -13315,16 +13895,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -13544,7 +14126,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="38" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -13558,7 +14140,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13657,9 +14239,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -13673,8 +14252,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13687,7 +14266,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -13718,6 +14299,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -13729,6 +14313,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -13740,6 +14327,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13749,6 +14337,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -13757,11 +14346,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -13777,6 +14368,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13792,6 +14387,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -13802,6 +14401,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -13810,6 +14411,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -13822,6 +14425,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -13832,6 +14437,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -13842,6 +14449,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -13850,6 +14459,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -14069,7 +14680,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="11" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -14083,7 +14694,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14182,9 +14793,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -14198,8 +14806,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -14212,7 +14820,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -14243,6 +14853,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -14254,6 +14867,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -14265,6 +14881,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -14274,6 +14891,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -14282,11 +14900,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -14302,6 +14922,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -14317,6 +14941,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -14327,6 +14955,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -14335,6 +14965,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -14347,6 +14979,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -14357,6 +14991,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -14367,6 +15003,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -14375,6 +15013,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -14594,7 +15234,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -14608,7 +15248,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,9 +15347,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -14723,8 +15360,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -14737,7 +15374,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -14768,6 +15407,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -14779,6 +15421,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -14790,6 +15435,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -14799,6 +15445,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -14807,11 +15454,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -14827,6 +15476,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -14842,6 +15495,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -14852,6 +15509,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -14860,6 +15519,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -14872,6 +15533,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -14882,6 +15545,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -14892,6 +15557,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -14900,6 +15567,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -15119,7 +15788,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="9" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -15133,7 +15802,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15232,9 +15901,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -15248,8 +15914,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -15262,7 +15928,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -15293,6 +15961,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -15304,6 +15975,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -15315,6 +15989,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -15324,6 +15999,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -15332,11 +16008,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -15352,6 +16030,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -15367,6 +16049,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -15377,6 +16063,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -15385,6 +16073,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -15397,6 +16087,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -15407,6 +16099,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -15417,6 +16111,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -15425,6 +16121,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -15644,7 +16342,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -15658,7 +16356,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15757,9 +16455,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -15773,8 +16468,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -15787,7 +16482,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -15818,6 +16515,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -15829,6 +16529,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -15840,6 +16543,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -15849,6 +16553,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -15857,11 +16562,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -15877,6 +16584,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -15892,6 +16603,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -15902,6 +16617,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -15910,6 +16627,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -15922,6 +16641,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -15932,6 +16653,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -15942,6 +16665,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -15950,6 +16675,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -16169,7 +16896,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="7" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -16183,7 +16910,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16282,9 +17009,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -16298,8 +17022,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -16312,7 +17036,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -16343,6 +17069,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -16354,6 +17083,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -16365,6 +17097,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -16374,6 +17107,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -16382,11 +17116,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -16402,6 +17138,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -16417,6 +17157,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -16427,6 +17171,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -16435,6 +17181,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -16447,6 +17195,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -16457,6 +17207,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -16467,6 +17219,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -16475,6 +17229,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -16694,7 +17450,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -16708,7 +17464,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16807,9 +17563,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -16823,8 +17576,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -16837,7 +17590,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -16868,6 +17623,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -16879,6 +17637,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -16890,6 +17651,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -16899,6 +17661,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -16907,11 +17670,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -16927,6 +17692,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -16942,6 +17711,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -16952,6 +17725,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -16960,6 +17735,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -16972,6 +17749,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -16982,6 +17761,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -16992,6 +17773,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -17000,6 +17783,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -17219,7 +18004,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -17233,7 +18018,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17332,9 +18117,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -17348,8 +18130,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17362,7 +18144,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -17393,6 +18177,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -17404,6 +18191,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17415,6 +18205,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -17424,6 +18215,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17432,11 +18224,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -17452,6 +18246,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -17467,6 +18265,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -17477,6 +18279,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -17485,6 +18289,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -17497,6 +18303,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -17507,6 +18315,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -17517,6 +18327,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -17525,6 +18337,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -17744,7 +18558,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -17758,7 +18572,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17857,9 +18671,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -17873,8 +18684,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17887,7 +18698,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -17918,6 +18731,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -17929,6 +18745,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17940,6 +18759,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -17949,6 +18769,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17957,11 +18778,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -17977,6 +18800,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -17992,6 +18819,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -18002,6 +18833,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -18010,6 +18843,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -18022,6 +18857,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -18032,6 +18869,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -18042,6 +18881,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -18050,6 +18891,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -18269,7 +19112,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="3" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -18283,7 +19126,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18382,9 +19225,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -18398,8 +19238,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -18412,7 +19252,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -18443,6 +19285,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -18454,6 +19299,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18465,6 +19313,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -18474,6 +19323,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -18482,11 +19332,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -18502,6 +19354,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18517,6 +19373,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -18527,6 +19387,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -18535,6 +19397,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -18547,6 +19411,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -18557,6 +19423,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -18567,6 +19435,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -18575,6 +19445,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -18794,7 +19666,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -18808,7 +19680,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18907,9 +19779,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -18923,8 +19792,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -18937,7 +19806,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -18968,6 +19839,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -18979,6 +19853,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18990,6 +19867,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -18999,6 +19877,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -19007,11 +19886,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -19023,10 +19904,14 @@
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -19036,11 +19921,15 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="38">
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -19050,16 +19939,24 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -19072,6 +19969,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -19082,6 +19981,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -19092,6 +19993,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -19100,6 +20003,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -19319,7 +20224,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="37" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -19333,7 +20238,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19432,9 +20337,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -19448,8 +20350,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -19462,7 +20364,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -19493,6 +20397,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -19504,6 +20411,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -19515,6 +20425,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -19524,6 +20435,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -19532,11 +20444,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -19552,6 +20466,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -19567,6 +20485,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -19577,6 +20499,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -19585,6 +20509,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -19597,6 +20523,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -19607,6 +20535,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -19617,6 +20547,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -19625,6 +20557,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -19844,7 +20778,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -19858,7 +20792,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19957,9 +20891,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -19973,8 +20904,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -19987,7 +20918,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -20018,6 +20951,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -20029,6 +20965,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -20040,6 +20979,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -20049,6 +20989,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -20057,11 +20998,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -20077,6 +21020,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -20092,6 +21039,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -20102,6 +21053,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -20110,6 +21063,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -20122,6 +21077,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -20132,6 +21089,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -20142,6 +21101,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -20150,6 +21111,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -20369,7 +21332,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -20383,7 +21346,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20482,9 +21445,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -20498,8 +21458,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -20512,7 +21472,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -20543,6 +21505,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -20554,6 +21519,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -20565,6 +21533,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -20574,6 +21543,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -20582,11 +21552,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -20598,10 +21570,14 @@
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -20611,11 +21587,15 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="38">
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -20627,6 +21607,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -20635,6 +21617,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -20647,6 +21631,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -20657,6 +21643,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -20667,6 +21655,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -20675,6 +21665,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -20896,7 +21888,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="36" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -20910,7 +21902,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21009,9 +22001,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -21025,8 +22014,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -21039,7 +22028,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -21070,6 +22061,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -21081,6 +22075,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -21092,6 +22089,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -21101,6 +22099,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -21109,11 +22108,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -21124,11 +22125,15 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
+      <c r="D18" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -21138,11 +22143,15 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -21152,16 +22161,20 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -21170,20 +22183,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -21192,16 +22209,20 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -21421,7 +22442,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="35" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -21435,7 +22456,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21534,9 +22555,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -21550,8 +22568,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -21564,7 +22582,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -21595,6 +22615,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -21606,6 +22629,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -21617,6 +22643,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -21626,6 +22653,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -21634,11 +22662,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -21654,6 +22684,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -21669,6 +22703,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -21679,6 +22717,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -21687,6 +22727,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -21699,6 +22741,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -21709,6 +22753,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -21719,6 +22765,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -21727,6 +22775,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -21777,11 +22827,21 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -21946,7 +23006,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="34" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -21960,7 +23020,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22059,9 +23119,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -22075,8 +23132,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22089,7 +23146,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -22120,6 +23179,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -22131,6 +23193,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22142,6 +23207,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -22151,6 +23217,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22159,11 +23226,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -22174,11 +23243,12 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22188,11 +23258,12 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
         <v>309</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -22202,16 +23273,18 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -22220,20 +23293,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -22242,16 +23317,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -22471,7 +23548,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="33" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
@@ -22485,7 +23562,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="B30:I46"/>
+      <selection activeCell="G6" sqref="G6:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22584,9 +23661,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -22600,8 +23674,8 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
-        <v>204</v>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22614,7 +23688,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -22645,6 +23721,9 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -22656,6 +23735,9 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22667,6 +23749,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -22676,6 +23759,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22684,11 +23768,13 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -22704,6 +23790,10 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22719,6 +23809,10 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -22729,6 +23823,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -22737,6 +23833,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -22749,6 +23847,8 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
@@ -22759,6 +23859,8 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -22769,6 +23871,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
@@ -22777,6 +23881,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -22827,8 +23933,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -22996,7 +24106,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C29:I29 C5:I5">
+  <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="32" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8577C62A-EDB5-46A6-BC3F-4D46D71B843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E9C65-8959-4BFB-8BDD-267D4614A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="15" activeTab="18" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="93">
   <si>
     <t>Vakken</t>
   </si>
@@ -204,10 +204,157 @@
     <t>Agenda leeg</t>
   </si>
   <si>
-    <t>Agenda leeg vanaf hier en volgende maanden</t>
+    <t>Met theo naar coole winkel gaan in antwerpen?</t>
   </si>
   <si>
-    <t>Met theo naar coole winkel gaan in antwerpen?</t>
+    <t>Opdracht #1 - DAP</t>
+  </si>
+  <si>
+    <t>Briefing opdracht #1 - GOALS!</t>
+  </si>
+  <si>
+    <t>Wio - Thomas</t>
+  </si>
+  <si>
+    <t>Wio - Kilian</t>
+  </si>
+  <si>
+    <t>Wio</t>
+  </si>
+  <si>
+    <t>Rush GT</t>
+  </si>
+  <si>
+    <t>9U - Hocus Focus</t>
+  </si>
+  <si>
+    <t>In progress expo</t>
+  </si>
+  <si>
+    <t>9u - hocus focus</t>
+  </si>
+  <si>
+    <t>Wio - Thomas - Kilian</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Afspraak 10U in Kortrijk</t>
+  </si>
+  <si>
+    <t>Opdracht #2 - RenAIssance</t>
+  </si>
+  <si>
+    <t>Speeddate - Feedback</t>
+  </si>
+  <si>
+    <t>10u: briefing opdracht #2</t>
+  </si>
+  <si>
+    <t>Deadline opdracht #1</t>
+  </si>
+  <si>
+    <t>Intensieve werkweek / geen atelier</t>
+  </si>
+  <si>
+    <t>10U: briefing opdracht</t>
+  </si>
+  <si>
+    <t>Presentaties</t>
+  </si>
+  <si>
+    <t>Deadline eiwit shift</t>
+  </si>
+  <si>
+    <t>Projectweek eiwit shift</t>
+  </si>
+  <si>
+    <t>Geen les</t>
+  </si>
+  <si>
+    <t>Studio Digital: Hack the future</t>
+  </si>
+  <si>
+    <t>Pitch @ MSK</t>
+  </si>
+  <si>
+    <t>9U: Hokus Focus</t>
+  </si>
+  <si>
+    <t>Wio  - Kilian</t>
+  </si>
+  <si>
+    <t>9U: hokus focus</t>
+  </si>
+  <si>
+    <t>Studio Digital: opbouw + museumnacht (wio - thomas - kilian)</t>
+  </si>
+  <si>
+    <t>Afbraak</t>
+  </si>
+  <si>
+    <t>Studio Digital: Deadline opdracht #2</t>
+  </si>
+  <si>
+    <t>10U: feedback opdracht #3</t>
+  </si>
+  <si>
+    <t>Briefing opdracht #3: FUTURE OF THE InTerwebZ</t>
+  </si>
+  <si>
+    <t>Kerstvakantie</t>
+  </si>
+  <si>
+    <t>Deadline Opdracht #3</t>
+  </si>
+  <si>
+    <t>Einde semester 1!</t>
+  </si>
+  <si>
+    <t>Paasmaandag (digitaal kalender is mss fout)</t>
+  </si>
+  <si>
+    <t>Studiereis (briefing Toledo)</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>Geen les + opstellen OCD + er is al les op zat!</t>
+  </si>
+  <si>
+    <t>Opencampusdag - AANWEZIG!</t>
+  </si>
+  <si>
+    <t>Opencampusdag</t>
+  </si>
+  <si>
+    <t>TBC - Bezoek aan expo New Technical Art Award</t>
+  </si>
+  <si>
+    <t>Deadline indienen internationale opdracht - 23U</t>
+  </si>
+  <si>
+    <t>Hemelvaart? (als het hemelvaart is, geen les)</t>
+  </si>
+  <si>
+    <t>Als het pinksteren is, geen les</t>
+  </si>
+  <si>
+    <t>Proefjury</t>
+  </si>
+  <si>
+    <t>Deadline indienen bachelorproef op Toledo - 23U</t>
+  </si>
+  <si>
+    <t>JURY</t>
+  </si>
+  <si>
+    <t>Opbouw graduation show</t>
+  </si>
+  <si>
+    <t>Graduation show</t>
   </si>
 </sst>
 </file>
@@ -378,7 +525,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +592,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1322,7 +1474,7 @@
   <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="D20" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +2114,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,17 +2250,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -2214,7 +2374,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -2504,7 +2666,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,17 +2802,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -2762,7 +2932,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="28" t="s">
         <v>3</v>
       </c>
@@ -3062,7 +3234,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,17 +3370,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -3314,7 +3494,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -3419,22 +3601,26 @@
         <v>45998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="F31" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -3604,7 +3790,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,17 +3926,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -3862,7 +4056,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="28" t="s">
         <v>3</v>
       </c>
@@ -3977,9 +4173,11 @@
         <v>46005</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -4162,7 +4360,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,17 +4496,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -4414,7 +4620,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -4704,7 +4912,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,29 +5018,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -4840,17 +5030,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -4858,29 +5042,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -4888,21 +5054,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -4910,13 +5066,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -4924,37 +5078,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -4962,21 +5090,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -4984,25 +5102,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -5010,21 +5114,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -5076,19 +5170,19 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5268,7 +5362,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5374,29 +5468,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -5404,17 +5480,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -5422,29 +5492,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -5452,21 +5504,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -5474,13 +5516,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -5488,37 +5528,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -5526,21 +5540,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -5548,25 +5552,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -5574,21 +5564,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -5637,22 +5617,22 @@
         <v>46026</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5832,7 +5812,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5968,17 +5948,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -6090,7 +6078,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -6388,7 +6378,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6524,15 +6514,21 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
@@ -6646,7 +6642,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -6763,7 +6761,9 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -6773,7 +6773,9 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
@@ -6941,8 +6943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F05623-E348-4555-8264-A129D987A943}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,8 +7315,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -7495,8 +7501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,7 +7638,9 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
@@ -7640,7 +7648,9 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
@@ -7650,7 +7660,9 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -7742,12 +7754,16 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -7867,7 +7883,7 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -13598,7 +13614,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13734,17 +13750,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -13850,7 +13874,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -14140,7 +14166,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15248,7 +15274,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15617,10 +15643,14 @@
         <v>46138</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -16356,7 +16386,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16471,7 +16501,9 @@
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -16492,9 +16524,13 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
@@ -16614,11 +16650,15 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -16732,7 +16772,9 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -16910,7 +16952,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17046,9 +17088,13 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
@@ -17168,11 +17214,15 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -17182,7 +17232,9 @@
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -17463,8 +17515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749555B-B31D-4B8E-B8B7-3E108EEA2C9C}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17600,9 +17652,13 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
@@ -17722,11 +17778,15 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -17833,7 +17893,7 @@
         <v>46166</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -17841,7 +17901,9 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -18018,7 +18080,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18154,7 +18216,9 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
@@ -18276,7 +18340,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -18387,13 +18453,15 @@
         <v>46173</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -18572,7 +18640,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18708,9 +18776,13 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
@@ -18830,11 +18902,15 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
@@ -19125,8 +19201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B4AFD-6E8F-4856-8C19-5D1A19F22499}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19495,15 +19571,21 @@
         <v>46187</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>88</v>
+      </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -19680,7 +19762,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19816,17 +19898,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -19938,7 +20028,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="28" t="s">
         <v>3</v>
       </c>
@@ -19950,7 +20042,9 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" s="29" t="s">
         <v>4</v>
       </c>
@@ -20238,7 +20332,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20609,8 +20703,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -20791,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F103211F-71C8-473B-B6C0-5C3DB387ED5E}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21163,13 +21261,27 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -21346,7 +21458,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21482,17 +21594,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -21508,7 +21628,9 @@
       <c r="F12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
@@ -21604,7 +21726,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -21902,7 +22026,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22038,17 +22162,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="40" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -22056,7 +22188,9 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -22160,7 +22294,9 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -22273,7 +22409,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -22456,7 +22594,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C18" sqref="C18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22562,13 +22700,13 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="14"/>
@@ -22576,13 +22714,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
+      <c r="C9" s="41">
         <v>204</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="41">
         <v>204</v>
       </c>
       <c r="H9" s="14"/>
@@ -22592,17 +22730,17 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -22610,7 +22748,7 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -22618,13 +22756,13 @@
       <c r="F12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="29"/>
       <c r="E13" s="12">
         <v>115</v>
@@ -22632,7 +22770,7 @@
       <c r="F13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -22640,21 +22778,21 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -22676,7 +22814,7 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
@@ -22686,7 +22824,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="14"/>
@@ -22694,7 +22832,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
+      <c r="C19" s="41">
         <v>204</v>
       </c>
       <c r="D19" s="29" t="s">
@@ -22704,7 +22842,7 @@
         <v>309</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="4">
+      <c r="G19" s="41">
         <v>204</v>
       </c>
       <c r="H19" s="14"/>
@@ -22714,21 +22852,21 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -22736,25 +22874,25 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -22762,21 +22900,21 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -22825,10 +22963,10 @@
         <v>45963</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>41</v>
@@ -22840,7 +22978,7 @@
         <v>41</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -23020,7 +23158,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23126,13 +23264,13 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="14"/>
@@ -23140,13 +23278,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
+      <c r="C9" s="41">
         <v>204</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="41">
         <v>204</v>
       </c>
       <c r="H9" s="14"/>
@@ -23156,17 +23294,25 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -23174,7 +23320,7 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -23182,13 +23328,13 @@
       <c r="F12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="29"/>
       <c r="E13" s="12">
         <v>115</v>
@@ -23196,7 +23342,7 @@
       <c r="F13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -23204,21 +23350,21 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -23240,14 +23386,14 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="14"/>
@@ -23255,14 +23401,14 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
+      <c r="C19" s="41">
         <v>204</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="4">
+      <c r="G19" s="41">
         <v>204</v>
       </c>
       <c r="H19" s="14"/>
@@ -23272,19 +23418,21 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="37"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -23292,23 +23440,23 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="37"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="37"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -23316,19 +23464,19 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="37"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="37"/>
       <c r="E25" s="3"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -23379,11 +23527,15 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -23562,7 +23714,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23668,9 +23820,6 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
@@ -23682,9 +23831,6 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
@@ -23698,17 +23844,19 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
       <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
       <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -23716,7 +23864,6 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -23730,7 +23877,6 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
       <c r="D13" s="29"/>
       <c r="E13" s="12">
         <v>115</v>
@@ -23746,7 +23892,6 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
       <c r="F14" s="29"/>
@@ -23756,7 +23901,6 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
       <c r="F15" s="29"/>
@@ -23782,9 +23926,6 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" s="28" t="s">
         <v>26</v>
       </c>
@@ -23800,9 +23941,6 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
       <c r="D19" s="29" t="s">
         <v>1</v>
       </c>
@@ -23820,7 +23958,6 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -23830,7 +23967,6 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
@@ -23842,7 +23978,6 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
       <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
@@ -23854,7 +23989,6 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
       <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -23868,7 +24002,6 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29"/>
@@ -23878,7 +24011,6 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
       <c r="F25" s="29"/>
@@ -23934,13 +24066,15 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E9C65-8959-4BFB-8BDD-267D4614A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F13873-9BE3-4556-AB71-D6584D7F6369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="15" activeTab="18" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="95">
   <si>
     <t>Vakken</t>
   </si>
@@ -356,6 +356,12 @@
   <si>
     <t>Graduation show</t>
   </si>
+  <si>
+    <t>Start stage</t>
+  </si>
+  <si>
+    <t>Studentenkaart meedoen!</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,6 +603,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -6943,7 +6952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F05623-E348-4555-8264-A129D987A943}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -7501,8 +7510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,10 +7898,10 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -7905,20 +7914,22 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="F32" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
-        <v>38</v>
+      <c r="C33" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -7929,7 +7940,7 @@
     </row>
     <row r="34" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="43" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="33"/>
@@ -8074,7 +8085,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8445,7 +8456,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154BE23-39D1-4554-BF7A-80DA5C9E5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ABF75-1E9D-4FA2-B271-FA398AAF3176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="5" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>10u: briefing opdracht #2</t>
   </si>
   <si>
-    <t>Deadline opdracht #1</t>
-  </si>
-  <si>
     <t>Intensieve werkweek / geen atelier</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>Studentenkaart meedoen!</t>
+  </si>
+  <si>
+    <t>Indienen opdracht #1</t>
   </si>
 </sst>
 </file>
@@ -2260,11 +2260,11 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2824,7 +2824,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="40" t="s">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -3392,7 +3392,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="40" t="s">
@@ -3616,7 +3616,7 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -3628,7 +3628,7 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -3948,7 +3948,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="40" t="s">
@@ -4185,7 +4185,7 @@
     <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -4518,7 +4518,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="40" t="s">
@@ -5179,19 +5179,19 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5629,19 +5629,19 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5970,7 +5970,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="40" t="s">
@@ -6536,7 +6536,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="3"/>
@@ -6771,7 +6771,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -6783,7 +6783,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -7325,10 +7325,10 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -7510,7 +7510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -7920,7 +7920,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -8458,7 +8458,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -15660,10 +15660,10 @@
     <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -16516,7 +16516,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="14"/>
     </row>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -16671,7 +16671,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -16787,7 +16787,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17247,7 +17247,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
       <c r="G21" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17916,7 +17916,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
@@ -18474,7 +18474,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -19588,17 +19588,17 @@
     <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
@@ -20718,10 +20718,10 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -21276,25 +21276,25 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="I30" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
@@ -21472,7 +21472,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21863,7 +21863,9 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
@@ -22039,8 +22041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F5DE5-0437-43A0-BD56-8902C110AB62}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22423,9 +22425,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -22980,7 +22980,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>41</v>
@@ -22992,7 +22992,7 @@
         <v>41</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -23321,11 +23321,11 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="29"/>
       <c r="G11" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -23542,13 +23542,13 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -23860,7 +23860,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -24080,14 +24080,14 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54547A27-0ED3-4E1B-81F4-E84CD84E6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF43DF-05E6-49EB-9C93-4C154BC9770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="117">
   <si>
     <t>Vakken</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>mss werken voor atelier ofzo al (storyboarding)</t>
+  </si>
+  <si>
+    <t>Hack the future inschrijven</t>
   </si>
 </sst>
 </file>
@@ -7580,7 +7583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -13702,7 +13705,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14057,7 +14060,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF43DF-05E6-49EB-9C93-4C154BC9770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD541A-29A1-4C22-80A2-647E62773818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="120">
   <si>
     <t>Vakken</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Hack the future inschrijven</t>
+  </si>
+  <si>
+    <t>Google doc maken</t>
+  </si>
+  <si>
+    <t>Ook animatie maken website, die ronddraait met polariserend kleurenpalet dan</t>
+  </si>
+  <si>
+    <t>Versies maken studio digitaal animatie in stijl, stills?</t>
   </si>
 </sst>
 </file>
@@ -7583,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7947,32 +7956,34 @@
         <v>45928</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="43" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -7981,11 +7992,13 @@
       <c r="F31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="39" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="33"/>
@@ -7996,11 +8009,13 @@
         <v>110</v>
       </c>
       <c r="E32" s="33"/>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="43" t="s">
         <v>92</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
@@ -13704,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493DF7C-02D1-45A4-9108-89B78FBB6AD1}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AB0E4-D1AE-4571-9AD5-6D0AD3A4F737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C052DA-3BBC-43D1-98B5-4A1AD1039C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -7599,7 +7599,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7962,7 +7962,7 @@
         <v>45928</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
         <v>29</v>
@@ -7977,12 +7977,10 @@
         <v>113</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>118</v>
-      </c>
+      <c r="H30" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -7999,10 +7997,10 @@
         <v>40</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="39"/>
+      <c r="H31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -8017,9 +8015,7 @@
         <v>92</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="43" t="s">
-        <v>117</v>
-      </c>
+      <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -8031,9 +8027,7 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="39" t="s">
-        <v>119</v>
-      </c>
+      <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -13726,7 +13720,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14095,10 +14089,12 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -14108,7 +14104,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -14118,7 +14116,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C052DA-3BBC-43D1-98B5-4A1AD1039C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA9FE4-E1F1-4E84-A0DC-71CA32ABB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -13719,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493DF7C-02D1-45A4-9108-89B78FBB6AD1}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA9FE4-E1F1-4E84-A0DC-71CA32ABB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD50F929-82EF-4593-9385-B1C9F7412A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="123">
   <si>
     <t>Vakken</t>
   </si>
@@ -443,6 +443,9 @@
   <si>
     <t>Werken digitaal</t>
   </si>
+  <si>
+    <t>feedback inschrijven</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,6 +700,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -13719,8 +13725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493DF7C-02D1-45A4-9108-89B78FBB6AD1}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14078,51 +14084,57 @@
       <c r="C30" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="43" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="43" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="39" t="s">
-        <v>119</v>
-      </c>
+      <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="47" t="s">
+        <v>120</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="39" t="s">
-        <v>107</v>
-      </c>
+      <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD50F929-82EF-4593-9385-B1C9F7412A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7C5B7-A35F-411B-BB28-CB048BEB9409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="126">
   <si>
     <t>Vakken</t>
   </si>
@@ -446,6 +446,15 @@
   <si>
     <t>feedback inschrijven</t>
   </si>
+  <si>
+    <t>Speciale rush - briefing 9:00</t>
+  </si>
+  <si>
+    <t>Feedback 14u20</t>
+  </si>
+  <si>
+    <t>Werken studio digitaal</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -700,9 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7604,8 +7610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584AF639-35B2-4815-B4D2-171BB2FF563A}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7996,7 +8002,7 @@
       <c r="D31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="43" t="s">
         <v>115</v>
       </c>
       <c r="F31" s="43" t="s">
@@ -13725,8 +13731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493DF7C-02D1-45A4-9108-89B78FBB6AD1}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14081,17 +14087,17 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="43" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="43" t="s">
         <v>116</v>
       </c>
       <c r="H30" s="39" t="s">
@@ -14120,7 +14126,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="33" t="s">
         <v>120</v>
       </c>
       <c r="I32" s="33"/>
@@ -19878,7 +19884,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E18:E21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20245,13 +20251,23 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7C5B7-A35F-411B-BB28-CB048BEB9409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E7D72-0591-4AE0-B81C-FBF5078DCBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -450,10 +450,10 @@
     <t>Speciale rush - briefing 9:00</t>
   </si>
   <si>
-    <t>Feedback 14u20</t>
+    <t>Werken studio digitaal</t>
   </si>
   <si>
-    <t>Werken studio digitaal</t>
+    <t>Feedback 11u40</t>
   </si>
 </sst>
 </file>
@@ -13731,7 +13731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7493DF7C-02D1-45A4-9108-89B78FBB6AD1}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -19883,8 +19883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20252,18 +20252,18 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>123</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>120</v>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D84D8F-1534-4CDB-9EA4-BEB6E524F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AE72B4-E799-4F9E-A700-0578E6794BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="128">
   <si>
     <t>Vakken</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>feedback - presentaties optioneel</t>
+  </si>
+  <si>
+    <t>Les gaat niet door</t>
   </si>
 </sst>
 </file>
@@ -19878,8 +19881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20018,7 +20021,9 @@
       <c r="C10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>127</v>
+      </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
       </c>
@@ -20171,7 +20176,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>127</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
@@ -20250,9 +20257,11 @@
         <v>122</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="F30" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>120</v>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AE72B4-E799-4F9E-A700-0578E6794BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0449D99-BE1C-45A4-B557-081A7AAF5A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t>Studentenkaart meedoen!</t>
   </si>
   <si>
-    <t>Indienen opdracht #1</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>Les gaat niet door</t>
+  </si>
+  <si>
+    <t>Indienen opdracht #1 - studio digitaal</t>
   </si>
 </sst>
 </file>
@@ -3032,7 +3032,7 @@
         <v>204</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="4">
@@ -3049,7 +3049,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -3166,7 +3166,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -4169,7 +4169,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -4288,7 +4288,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -4842,7 +4842,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -7741,7 +7741,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -7847,7 +7847,7 @@
         <v>204</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -7863,7 +7863,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>45</v>
@@ -7986,17 +7986,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -8006,17 +8006,17 @@
         <v>38</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="33"/>
     </row>
@@ -8026,7 +8026,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="43" t="s">
@@ -13848,7 +13848,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -13862,7 +13862,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -13959,7 +13959,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -13976,7 +13976,7 @@
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -14094,17 +14094,17 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -14113,7 +14113,7 @@
       <c r="B31" s="33"/>
       <c r="C31" s="39"/>
       <c r="D31" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -19882,7 +19882,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19992,7 +19992,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -20006,7 +20006,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -20022,7 +20022,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -20105,7 +20105,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -20122,7 +20122,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -20138,7 +20138,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="3"/>
@@ -20177,7 +20177,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -20254,35 +20254,35 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>121</v>
-      </c>
       <c r="I30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -20290,7 +20290,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -20302,7 +20302,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -20314,7 +20314,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -21584,7 +21584,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21694,7 +21694,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -21708,7 +21708,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -21810,7 +21810,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -21824,13 +21824,13 @@
         <v>204</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -21846,7 +21846,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="45"/>
@@ -21957,7 +21957,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>31</v>
@@ -21966,14 +21966,14 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -22256,7 +22256,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -22270,7 +22270,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -22369,7 +22369,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -22386,7 +22386,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -22800,7 +22800,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>6</v>
@@ -22814,7 +22814,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="41">
         <v>204</v>
@@ -22903,7 +22903,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>6</v>
@@ -22920,7 +22920,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="41">
         <v>204</v>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0449D99-BE1C-45A4-B557-081A7AAF5A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9FE6D-D97C-4FBC-9B91-FA71B4D5EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="129">
   <si>
     <t>Vakken</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Indienen opdracht #1 - studio digitaal</t>
+  </si>
+  <si>
+    <t>Op feedback met visual dingen en functionality afhebben</t>
   </si>
 </sst>
 </file>
@@ -19882,7 +19885,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21583,8 +21586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CFA48-85D7-488A-903D-AC61719A0602}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21955,7 +21958,9 @@
     </row>
     <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>128</v>
+      </c>
       <c r="D30" s="39" t="s">
         <v>108</v>
       </c>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9FE6D-D97C-4FBC-9B91-FA71B4D5EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EB0BB-07C1-4B17-96ED-1C1DE654C668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="133">
   <si>
     <t>Vakken</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>Op feedback met visual dingen en functionality afhebben</t>
+  </si>
+  <si>
+    <t>Presentaties kunst &amp; maatschappij</t>
+  </si>
+  <si>
+    <t>Communicatie opdracht tegen 23:59s</t>
+  </si>
+  <si>
+    <t>Communicatie nieuwe opdracht tegen 23:59</t>
+  </si>
+  <si>
+    <t>C&amp;O: ondernemingsplan en financieelplan taak</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2800,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,13 +3177,15 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -3352,7 +3366,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,7 +3737,9 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="39" t="s">
         <v>68</v>
       </c>
@@ -3908,7 +3924,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4309,9 @@
       <c r="D30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -4474,7 +4492,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,7 +4865,9 @@
       <c r="D30" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -5930,7 +5950,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6321,9 +6341,11 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -19884,8 +19906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20288,9 +20310,11 @@
         <v>122</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
         <v>103</v>
@@ -20298,7 +20322,9 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EB0BB-07C1-4B17-96ED-1C1DE654C668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EEA361-A2AC-4AED-8120-A643EA18DF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="136">
   <si>
     <t>Vakken</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Speciale rush - briefing 9:00</t>
   </si>
   <si>
-    <t>Werken studio digitaal</t>
-  </si>
-  <si>
     <t>Feedback 11u40</t>
   </si>
   <si>
@@ -475,6 +472,18 @@
   </si>
   <si>
     <t>C&amp;O: ondernemingsplan en financieelplan taak</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Deadline RAMKOT rush</t>
+  </si>
+  <si>
+    <t>14u00 Stijn D'hondt feedback experten portfolionamiddag opschrijven</t>
+  </si>
+  <si>
+    <t>Vragen frank voor halloween night daar slapen</t>
   </si>
 </sst>
 </file>
@@ -3064,7 +3073,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -3181,10 +3190,10 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -3738,7 +3747,7 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>68</v>
@@ -4188,7 +4197,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -4307,10 +4316,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4866,7 +4875,7 @@
         <v>102</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -6344,7 +6353,7 @@
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -19906,8 +19915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20047,7 +20056,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -20202,7 +20211,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -20278,21 +20287,21 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>121</v>
+      <c r="C30" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="43" t="s">
         <v>119</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>116</v>
@@ -20300,37 +20309,37 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="43" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="39" t="s">
-        <v>122</v>
+      <c r="G31" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="39" t="s">
-        <v>131</v>
+      <c r="I31" s="43" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="43" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="39" t="s">
-        <v>130</v>
-      </c>
+      <c r="G32" s="33"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="39" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="43" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="33"/>
@@ -20342,7 +20351,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="43" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="33"/>
@@ -21612,8 +21621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CFA48-85D7-488A-903D-AC61719A0602}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21985,7 +21994,7 @@
     <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>108</v>
@@ -21997,14 +22006,16 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="D31" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -22015,7 +22026,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>134</v>
+      </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -23263,7 +23276,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D21"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23646,7 +23659,9 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EEA361-A2AC-4AED-8120-A643EA18DF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DA7B8-1ADB-48BE-BA06-3E4CE1A7CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1" sheetId="2" r:id="rId2"/>
     <sheet name="Week 2" sheetId="7" r:id="rId3"/>
     <sheet name="Week 3" sheetId="8" r:id="rId4"/>
-    <sheet name="Week 4" sheetId="9" r:id="rId5"/>
-    <sheet name="Week 5" sheetId="10" r:id="rId6"/>
+    <sheet name="Week 5" sheetId="10" r:id="rId5"/>
+    <sheet name="Week 4" sheetId="9" r:id="rId6"/>
     <sheet name="Week 6" sheetId="11" r:id="rId7"/>
     <sheet name="Week 7" sheetId="12" r:id="rId8"/>
     <sheet name="Week 8" sheetId="13" r:id="rId9"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="137">
   <si>
     <t>Vakken</t>
   </si>
@@ -474,9 +474,6 @@
     <t>C&amp;O: ondernemingsplan en financieelplan taak</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Deadline RAMKOT rush</t>
   </si>
   <si>
@@ -484,6 +481,12 @@
   </si>
   <si>
     <t>Vragen frank voor halloween night daar slapen</t>
+  </si>
+  <si>
+    <t>Wonder festival kortrijk, aanwezig zijn aan de budafabriek om 10u!</t>
+  </si>
+  <si>
+    <t>Portfolio af hebben en mails sturen</t>
   </si>
 </sst>
 </file>
@@ -19915,7 +19918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -20300,9 +20303,7 @@
       <c r="G30" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>132</v>
-      </c>
+      <c r="H30" s="39"/>
       <c r="I30" s="39" t="s">
         <v>116</v>
       </c>
@@ -21618,10 +21619,570 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F5DE5-0437-43A0-BD56-8902C110AB62}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3/Index!R3</f>
+        <v>0.125</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="26">
+        <f>Index!R4+(7*(C3-1))</f>
+        <v>45950</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5+1</f>
+        <v>45951</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:I5" si="0">D5+1</f>
+        <v>45952</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
+        <v>45953</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>45954</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>45955</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4">
+        <v>204</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="G10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="G11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="12">
+        <v>115</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="4">
+        <v>204</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C5</f>
+        <v>45950</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="1">D5</f>
+        <v>45951</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>45952</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
+        <v>45953</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>45954</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>45955</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:I5 C29:I29">
+    <cfRule type="timePeriod" dxfId="35" priority="1" timePeriod="today">
+      <formula>FLOOR(C5,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CFA48-85D7-488A-903D-AC61719A0602}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -22002,9 +22563,15 @@
       <c r="E30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="I30" s="39" t="s">
         <v>126</v>
       </c>
@@ -22012,22 +22579,26 @@
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -22178,550 +22749,6 @@
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="36" priority="1" timePeriod="today">
-      <formula>FLOOR(C5,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F5DE5-0437-43A0-BD56-8902C110AB62}">
-  <dimension ref="B2:I46"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22">
-        <v>5</v>
-      </c>
-      <c r="D3" s="24">
-        <f>C3/Index!R3</f>
-        <v>0.125</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26">
-        <f>Index!R4+(7*(C3-1))</f>
-        <v>45950</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5+1</f>
-        <v>45951</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>45952</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>45953</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>45954</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>45955</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="G10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="G11" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30">
-        <f>C5</f>
-        <v>45950</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>45951</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>45952</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="1"/>
-        <v>45953</v>
-      </c>
-      <c r="G29" s="30">
-        <f t="shared" si="1"/>
-        <v>45954</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="1"/>
-        <v>45955</v>
-      </c>
-      <c r="I29" s="30">
-        <f t="shared" si="1"/>
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="35" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23660,7 +23687,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DA7B8-1ADB-48BE-BA06-3E4CE1A7CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA1CA6-CC84-4E50-BEA3-1E637E460068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="19090" yWindow="830" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="4" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1" sheetId="2" r:id="rId2"/>
     <sheet name="Week 2" sheetId="7" r:id="rId3"/>
     <sheet name="Week 3" sheetId="8" r:id="rId4"/>
-    <sheet name="Week 5" sheetId="10" r:id="rId5"/>
-    <sheet name="Week 4" sheetId="9" r:id="rId6"/>
+    <sheet name="Week 4" sheetId="9" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="10" r:id="rId6"/>
     <sheet name="Week 6" sheetId="11" r:id="rId7"/>
     <sheet name="Week 7" sheetId="12" r:id="rId8"/>
     <sheet name="Week 8" sheetId="13" r:id="rId9"/>
@@ -19918,7 +19918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9985558-1814-4160-B40F-68ED64E694D2}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -21619,6 +21619,584 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CFA48-85D7-488A-903D-AC61719A0602}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>4</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3/Index!R3</f>
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="26">
+        <f>Index!R4+(7*(C3-1))</f>
+        <v>45943</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5+1</f>
+        <v>45944</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:I5" si="0">D5+1</f>
+        <v>45945</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
+        <v>45946</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>45947</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>45948</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4">
+        <v>204</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="G10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="G11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="12">
+        <v>115</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="4">
+        <v>204</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4">
+        <v>309</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C5</f>
+        <v>45943</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="1">D5</f>
+        <v>45944</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>45945</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
+        <v>45946</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>45947</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>45948</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:I5 C29:I29">
+    <cfRule type="timePeriod" dxfId="35" priority="1" timePeriod="today">
+      <formula>FLOOR(C5,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F5DE5-0437-43A0-BD56-8902C110AB62}">
   <dimension ref="B2:I46"/>
   <sheetViews>
@@ -22022,584 +22600,6 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="35" priority="1" timePeriod="today">
-      <formula>FLOOR(C5,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CFA48-85D7-488A-903D-AC61719A0602}">
-  <dimension ref="B2:I46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22">
-        <v>4</v>
-      </c>
-      <c r="D3" s="24">
-        <f>C3/Index!R3</f>
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26">
-        <f>Index!R4+(7*(C3-1))</f>
-        <v>45943</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5+1</f>
-        <v>45944</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>45945</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>45946</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>45947</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>45948</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>45949</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="G10" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="G11" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30">
-        <f>C5</f>
-        <v>45943</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>45944</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>45945</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="1"/>
-        <v>45946</v>
-      </c>
-      <c r="G29" s="30">
-        <f t="shared" si="1"/>
-        <v>45947</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="1"/>
-        <v>45948</v>
-      </c>
-      <c r="I29" s="30">
-        <f t="shared" si="1"/>
-        <v>45949</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>133</v>
-      </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAC137-A172-4661-BD8B-5B99B51324BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84752B0-0CAF-4E35-A2E9-F9BA19A31B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -22332,7 +22332,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22920,8 +22920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2593DF6-2166-4160-9A1D-CC01C28A3394}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23290,9 +23290,15 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>153</v>
+      </c>
       <c r="F31" s="39" t="s">
         <v>150</v>
       </c>
@@ -23312,15 +23318,9 @@
     </row>
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>153</v>
-      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="33" t="s">
         <v>153</v>
       </c>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84752B0-0CAF-4E35-A2E9-F9BA19A31B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74A6A9-AE99-4838-888A-EFF8BB1398EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="6" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="178">
   <si>
     <t>Vakken</t>
   </si>
@@ -577,6 +577,39 @@
   </si>
   <si>
     <t>hoe is de projectweek? Naar school dan voor dnd?</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>8:45 - Auditorium A4!!!!</t>
+  </si>
+  <si>
+    <t>Introductie door Kristof Rubens en Koen Thewissen, teamvorming en eerste gesprekken met doelgroep-experts.</t>
+  </si>
+  <si>
+    <t>Voorbereiding en uitvoering van ‘rapid research', gevolgd door eerste conceptdefinitie met docentcoaching.</t>
+  </si>
+  <si>
+    <t>Reviewmoment met docenten voor feedback op onderzoek en concepten.</t>
+  </si>
+  <si>
+    <t>Expertinterviews ter validatie van inzichten, gevolgd door verdere uitwerking onder begeleiding van docenten.</t>
+  </si>
+  <si>
+    <t>Oefening op team dynamiek en start van de tweede reviewronde.</t>
+  </si>
+  <si>
+    <t>Voortzetting van review 2 volgens time slots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury-presentaties </t>
+  </si>
+  <si>
+    <t>Jury-presentaties</t>
+  </si>
+  <si>
+    <t>Frank sticker</t>
   </si>
 </sst>
 </file>
@@ -22331,7 +22364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F5DE5-0437-43A0-BD56-8902C110AB62}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -22920,8 +22953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2593DF6-2166-4160-9A1D-CC01C28A3394}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23274,13 +23307,13 @@
         <v>57</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>57</v>
@@ -23302,17 +23335,23 @@
       <c r="F31" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="33" t="s">
+        <v>153</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>163</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
@@ -23321,26 +23360,20 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>153</v>
-      </c>
+      <c r="F33" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
@@ -23480,7 +23513,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23579,6 +23612,9 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
+      <c r="C7" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -23586,11 +23622,14 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
+      <c r="F8" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>6</v>
@@ -23600,11 +23639,14 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="41">
+      <c r="C9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="41">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
+      <c r="F9" s="41">
+        <v>204</v>
       </c>
       <c r="G9" s="41">
         <v>204</v>
@@ -23617,9 +23659,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="29"/>
+        <v>58</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
@@ -23629,9 +23676,14 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="37" t="s">
         <v>59</v>
       </c>
@@ -23643,27 +23695,29 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="12">
         <v>115</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -23673,9 +23727,9 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -23683,9 +23737,9 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -23694,13 +23748,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -23711,10 +23763,15 @@
       <c r="C18" s="36" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="G18" s="36" t="s">
         <v>6</v>
       </c>
@@ -23723,13 +23780,18 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="41">
+      <c r="C19" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="41">
         <v>204</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="41">
+        <v>204</v>
+      </c>
       <c r="G19" s="41">
         <v>204</v>
       </c>
@@ -23743,17 +23805,25 @@
       <c r="C20" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -23763,10 +23833,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -23774,10 +23847,11 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -23787,8 +23861,9 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -23796,8 +23871,9 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -23907,7 +23983,9 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>168</v>
+      </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -23917,7 +23995,9 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="C35" s="39" t="s">
+        <v>177</v>
+      </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74A6A9-AE99-4838-888A-EFF8BB1398EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EAF3E-A3B7-4EC6-A039-F4736DF6DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="6" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="185">
   <si>
     <t>Vakken</t>
   </si>
@@ -610,6 +610,27 @@
   </si>
   <si>
     <t>Frank sticker</t>
+  </si>
+  <si>
+    <t>Naar dad</t>
+  </si>
+  <si>
+    <t>LES KUNT EN MAATSCHAPPIJ OM 19UI!!</t>
+  </si>
+  <si>
+    <t>personal branding: tekstje over jezelf tegen 11/11/25</t>
+  </si>
+  <si>
+    <t>digitale stage: indienen startverslag 15/02</t>
+  </si>
+  <si>
+    <t>digitale stage: indienen my internship is cooler then yours 02/03</t>
+  </si>
+  <si>
+    <t>digitale stage: indienen eindverslag &amp; kritische reflectie 11/05</t>
+  </si>
+  <si>
+    <t>digitale stage: indienen evaluatieformulier 29/05</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1772,7 @@
   <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D18:D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2412,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2781,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -2943,7 +2966,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,7 +6122,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,7 +9503,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9849,7 +9872,7 @@
         <v>46068</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -9857,7 +9880,9 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -11142,7 +11167,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11511,9 +11536,11 @@
         <v>46089</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>182</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -11696,7 +11723,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13358,7 +13385,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17246,7 +17273,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17625,9 +17652,11 @@
         <v>46159</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>183</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -17810,7 +17839,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18190,7 +18219,9 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="39" t="s">
+        <v>184</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -20056,7 +20087,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22953,8 +22984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2593DF6-2166-4160-9A1D-CC01C28A3394}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23318,7 +23349,9 @@
       <c r="G30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -23512,8 +23545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64257DD-36F6-4D3D-9181-60703F29B047}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23945,11 +23978,13 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="39" t="s">
-        <v>132</v>
+      <c r="C31" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="39" t="s">
+        <v>179</v>
+      </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
         <v>154</v>
@@ -23959,8 +23994,8 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
-        <v>154</v>
+      <c r="C32" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -23969,10 +24004,10 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -23984,7 +24019,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="39" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -23995,9 +24030,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="39" t="s">
-        <v>177</v>
-      </c>
+      <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -24130,7 +24163,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24487,10 +24520,12 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EAF3E-A3B7-4EC6-A039-F4736DF6DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCD508-BAF8-4E27-AECA-1194DD1B6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="186">
   <si>
     <t>Vakken</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>digitale stage: indienen evaluatieformulier 29/05</t>
+  </si>
+  <si>
+    <t>Communicatie stunten oefening opnieuw maken</t>
   </si>
 </sst>
 </file>
@@ -23546,7 +23549,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23973,7 +23976,9 @@
       <c r="G30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>185</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCD508-BAF8-4E27-AECA-1194DD1B6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED5AE7-62F1-4E0C-92E4-8795A3C38324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="187">
   <si>
     <t>Vakken</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Communicatie stunten oefening opnieuw maken</t>
+  </si>
+  <si>
+    <t>indienen evaluatieformulier van stagementor</t>
   </si>
 </sst>
 </file>
@@ -9506,7 +9509,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18408,7 +18411,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18793,13 +18796,15 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
@@ -23549,7 +23554,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23961,7 +23966,7 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -23983,7 +23988,7 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D31" s="33"/>
@@ -23999,7 +24004,7 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="43" t="s">
         <v>165</v>
       </c>
       <c r="D32" s="33"/>
@@ -24011,7 +24016,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="43" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="33"/>
@@ -24023,7 +24028,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="43" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F586D8-741E-4C76-9A0E-1A7E3AFDFD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717542D-C344-4DF1-8C64-D566DDB65DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="196">
   <si>
     <t>Vakken</t>
   </si>
@@ -649,6 +649,21 @@
   </si>
   <si>
     <t>tekstje over jezelf maken</t>
+  </si>
+  <si>
+    <t>Socials doen van portfolio</t>
+  </si>
+  <si>
+    <t>Al pc inpakken?</t>
+  </si>
+  <si>
+    <t>Feedback 12u</t>
+  </si>
+  <si>
+    <t>Naar Zoé</t>
+  </si>
+  <si>
+    <t>Alles op google doc zetten eiwitshift</t>
   </si>
 </sst>
 </file>
@@ -24190,8 +24205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540D00F-E00B-4712-A98C-299E1C436B50}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24516,13 +24531,21 @@
       <c r="D30" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>191</v>
+      </c>
       <c r="F30" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -24532,9 +24555,13 @@
       <c r="D31" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="39" t="s">
+        <v>195</v>
+      </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>193</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717542D-C344-4DF1-8C64-D566DDB65DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902497C5-DDB0-42E0-855B-E5E89329FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="197">
   <si>
     <t>Vakken</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>Alles op google doc zetten eiwitshift</t>
+  </si>
+  <si>
+    <t>BIJ MOM ZOE CADEAU HALEN</t>
   </si>
 </sst>
 </file>
@@ -24206,7 +24209,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24569,7 +24572,9 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBFADB-5396-4436-B395-EB9577E56588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8BBA13-F074-4183-94A1-58B81A0EBC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="207">
   <si>
     <t>Vakken</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>Alles inpakken in de avond</t>
+  </si>
+  <si>
+    <t>10 DEC KUNST DING VOORSTELLEN</t>
   </si>
 </sst>
 </file>
@@ -4124,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4510,7 +4513,9 @@
         <v>157</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="33" t="s">
+        <v>206</v>
+      </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -24176,8 +24181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540D00F-E00B-4712-A98C-299E1C436B50}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8BBA13-F074-4183-94A1-58B81A0EBC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F8543-A26C-4D93-ABE8-9D327280E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -4127,7 +4127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -24181,7 +24181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540D00F-E00B-4712-A98C-299E1C436B50}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F8543-A26C-4D93-ABE8-9D327280E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B445C-EB91-4C7D-A722-524A325F72AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="6" activeTab="8" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="211">
   <si>
     <t>Vakken</t>
   </si>
@@ -697,6 +697,18 @@
   </si>
   <si>
     <t>10 DEC KUNST DING VOORSTELLEN</t>
+  </si>
+  <si>
+    <t>Deadline alles communicatie taken</t>
+  </si>
+  <si>
+    <t>Communicatie vrouw komt in de studios bespreken hoe het gaat met stage zoeken</t>
+  </si>
+  <si>
+    <t>Socials afwerken portfolio</t>
+  </si>
+  <si>
+    <t>Mails sturen</t>
   </si>
 </sst>
 </file>
@@ -2477,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2678765-AEBB-4924-B6A9-4BB729875067}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F25"/>
+    <sheetView zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2836,27 +2848,29 @@
       <c r="C30" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="E30" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>208</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="39" t="s">
-        <v>197</v>
-      </c>
+      <c r="D31" s="33"/>
       <c r="E31" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>198</v>
-      </c>
+      <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -3026,7 +3040,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3391,7 +3405,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>207</v>
+      </c>
       <c r="D30" s="39" t="s">
         <v>123</v>
       </c>
@@ -4128,7 +4144,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4513,7 +4529,7 @@
         <v>157</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="39" t="s">
         <v>206</v>
       </c>
       <c r="F31" s="33"/>
@@ -24181,7 +24197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540D00F-E00B-4712-A98C-299E1C436B50}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -24509,10 +24525,10 @@
       <c r="D30" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="43" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="39" t="s">
@@ -24533,15 +24549,17 @@
       <c r="D31" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="43" t="s">
         <v>194</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="43" t="s">
         <v>192</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="33" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="33"/>
@@ -24553,7 +24571,9 @@
         <v>195</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="33" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B35D67-35D3-4602-B69C-0C78C5A6A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274C820-85C2-4CBA-B1B0-FFB79A1EF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="235">
   <si>
     <t>Vakken</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>Graduation show</t>
-  </si>
-  <si>
-    <t>Start stage</t>
   </si>
   <si>
     <t>Studentenkaart meedoen!</t>
@@ -742,6 +739,48 @@
   </si>
   <si>
     <t>Theo fotos</t>
+  </si>
+  <si>
+    <t>snacks en cadeautje meedoen</t>
+  </si>
+  <si>
+    <t>bday kaart</t>
+  </si>
+  <si>
+    <t>deadline peerfeedback half half</t>
+  </si>
+  <si>
+    <t>video deadline indienen film</t>
+  </si>
+  <si>
+    <t>WERKEN KLOK</t>
+  </si>
+  <si>
+    <t>KLOK MOET AF ZIJN</t>
+  </si>
+  <si>
+    <t>KLOK MOET AFZIJN</t>
+  </si>
+  <si>
+    <t>Locatie fixen klok!</t>
+  </si>
+  <si>
+    <t>stage bedrijven sturen</t>
+  </si>
+  <si>
+    <t>Einde stage</t>
+  </si>
+  <si>
+    <t>Start stage (? Blijkbaar niet)</t>
+  </si>
+  <si>
+    <t>START STAGE</t>
+  </si>
+  <si>
+    <t>EIND STAGE</t>
+  </si>
+  <si>
+    <t>naar ovp met theo?</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2562,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -2647,7 +2686,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -2663,7 +2702,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>66</v>
@@ -2692,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -2705,7 +2744,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -2880,54 +2919,64 @@
     </row>
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>187</v>
+      <c r="C30" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="43" t="s">
+        <v>186</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="33"/>
+        <v>218</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
-        <v>208</v>
+      <c r="C31" s="43" t="s">
+        <v>207</v>
       </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="33"/>
+      <c r="E31" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="G31" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+        <v>197</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -2935,8 +2984,12 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
@@ -3077,6 +3130,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3085,7 +3139,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -3209,7 +3263,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -3225,7 +3279,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -3254,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -3267,7 +3321,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -3327,7 +3381,7 @@
         <v>204</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -3343,7 +3397,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
@@ -3453,40 +3507,56 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>223</v>
+      </c>
       <c r="D31" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="33"/>
+        <v>195</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>234</v>
+      </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="D32" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="33"/>
+        <v>211</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -3495,7 +3565,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="39" t="s">
+        <v>224</v>
+      </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -3505,7 +3577,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -3757,7 +3831,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -3771,7 +3845,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -3787,7 +3861,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>69</v>
@@ -3816,7 +3890,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -3829,7 +3903,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -3860,7 +3934,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -4015,13 +4089,13 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>68</v>
@@ -4029,14 +4103,14 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="39" t="s">
@@ -4321,7 +4395,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -4335,7 +4409,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -4351,7 +4425,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -4380,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -4393,7 +4467,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -4469,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
@@ -4582,10 +4656,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4595,13 +4669,13 @@
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4883,7 +4957,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -4897,7 +4971,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -4913,7 +4987,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -4942,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -4955,7 +5029,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -5132,14 +5206,14 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5148,10 +5222,10 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -6047,7 +6121,7 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -6225,7 +6299,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,7 +6693,7 @@
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -6630,7 +6704,9 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>232</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -8027,7 +8103,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -8041,7 +8117,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -8147,7 +8223,7 @@
         <v>204</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -8163,7 +8239,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>45</v>
@@ -8286,17 +8362,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -8306,17 +8382,17 @@
         <v>38</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="33"/>
     </row>
@@ -8326,11 +8402,11 @@
         <v>33</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -8868,9 +8944,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>231</v>
+      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -9984,7 +10060,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -11642,7 +11718,7 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -11826,7 +11902,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12201,7 +12277,9 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>233</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -14152,7 +14230,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -14166,7 +14244,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -14263,7 +14341,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -14280,7 +14358,7 @@
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -14398,17 +14476,17 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -14417,7 +14495,7 @@
       <c r="B31" s="33"/>
       <c r="C31" s="39"/>
       <c r="D31" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -14590,7 +14668,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14961,7 +15039,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>230</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -17376,7 +17456,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17758,7 +17838,7 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -18323,7 +18403,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -18900,7 +18980,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -20302,7 +20382,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -20316,7 +20396,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -20332,7 +20412,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -20415,7 +20495,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -20432,7 +20512,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -20448,7 +20528,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="3"/>
@@ -20487,7 +20567,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -20564,43 +20644,43 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -20608,13 +20688,13 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -20626,7 +20706,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -22006,7 +22086,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -22020,7 +22100,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -22122,7 +22202,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -22136,13 +22216,13 @@
         <v>204</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -22158,7 +22238,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="45"/>
@@ -22268,82 +22348,82 @@
     <row r="30" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>138</v>
-      </c>
       <c r="F33" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -22353,11 +22433,11 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
@@ -22369,7 +22449,7 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -22611,7 +22691,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -22625,7 +22705,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -22706,7 +22786,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -22729,7 +22809,7 @@
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -22747,7 +22827,7 @@
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -22871,41 +22951,41 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="I30" s="39" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -22914,14 +22994,14 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -22930,10 +23010,10 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -22944,7 +23024,7 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -22956,7 +23036,7 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -23200,7 +23280,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>6</v>
@@ -23214,7 +23294,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="41">
         <v>204</v>
@@ -23303,7 +23383,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>6</v>
@@ -23320,7 +23400,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="41">
         <v>204</v>
@@ -23455,26 +23535,26 @@
         <v>57</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -23485,10 +23565,10 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -23499,7 +23579,7 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -23761,7 +23841,7 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>6</v>
@@ -23814,7 +23894,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>59</v>
@@ -23834,16 +23914,16 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -23919,7 +23999,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="41">
         <v>204</v>
@@ -23944,12 +24024,12 @@
         <v>44</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -23957,7 +24037,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
@@ -23976,7 +24056,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="14"/>
@@ -24067,34 +24147,34 @@
         <v>61</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -24102,7 +24182,7 @@
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -24114,7 +24194,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -24126,7 +24206,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -24598,35 +24678,35 @@
         <v>41</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -24638,7 +24718,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274C820-85C2-4CBA-B1B0-FFB79A1EF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AA47F-D40C-4644-9622-0FF56B6CA1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2678765-AEBB-4924-B6A9-4BB729875067}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,7 +3139,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454AD567-9F12-4997-8D76-BE3FC82557ED}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AA47F-D40C-4644-9622-0FF56B6CA1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA5EC3-867C-44D1-83A1-DB2F4BAA692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="246">
   <si>
     <t>Vakken</t>
   </si>
@@ -781,6 +781,46 @@
   </si>
   <si>
     <t>naar ovp met theo?</t>
+  </si>
+  <si>
+    <t>OISOI STUDIO</t>
+  </si>
+  <si>
+    <t>Tennisbaanstraat 41, 9000 Gent. </t>
+  </si>
+  <si>
+    <t>OISOI STUDIO 14:00!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISUELE STIJL VAST + NAAM VINDEN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILS STUREN PLEKKEN VOOR OP STELLEN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISUALS AF + WERKEND OPSTELLING
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle visuals functioneel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra’s (geluid), (posters voor de doos design), Opstellen en in werking stellen van de klok
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voormiddag: afbreken en weghalen van de klokken.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voormiddag: afbreken en weghalen van de klokken. In de namiddag start de nieuwe briefing.
+</t>
+  </si>
+  <si>
+    <t>communicatie taken maken</t>
   </si>
 </sst>
 </file>
@@ -2561,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2678765-AEBB-4924-B6A9-4BB729875067}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2966,7 @@
       <c r="E30" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="43" t="s">
         <v>209</v>
       </c>
       <c r="G30" s="39" t="s">
@@ -2948,7 +2988,7 @@
       <c r="E31" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="43" t="s">
         <v>196</v>
       </c>
       <c r="G31" s="39" t="s">
@@ -2963,12 +3003,12 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="43" t="s">
         <v>217</v>
       </c>
       <c r="G32" s="39" t="s">
@@ -2984,7 +3024,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="43" t="s">
         <v>229</v>
       </c>
       <c r="G33" s="39" t="s">
@@ -2993,23 +3033,27 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="39" t="s">
+        <v>238</v>
+      </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="39" t="s">
+        <v>239</v>
+      </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
     </row>
@@ -3019,7 +3063,9 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="39" t="s">
+        <v>245</v>
+      </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
     </row>
@@ -3139,7 +3185,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,8 +3409,8 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
+      <c r="C18" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -3377,8 +3423,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
+      <c r="C19" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>96</v>
@@ -3393,9 +3439,7 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="29" t="s">
         <v>122</v>
       </c>
@@ -3405,7 +3449,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>3</v>
       </c>
@@ -3417,7 +3461,7 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="29" t="s">
         <v>4</v>
       </c>
@@ -3430,7 +3474,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -3443,7 +3487,7 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
       <c r="G24" s="3"/>
@@ -3452,7 +3496,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
       <c r="G25" s="3"/>
@@ -3530,7 +3574,7 @@
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="43" t="s">
         <v>223</v>
       </c>
       <c r="D31" s="39" t="s">
@@ -3542,7 +3586,9 @@
       <c r="F31" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>241</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
@@ -3562,13 +3608,17 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>237</v>
+      </c>
       <c r="D33" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="39" t="s">
+        <v>240</v>
+      </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -3720,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454AD567-9F12-4997-8D76-BE3FC82557ED}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,9 +4156,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>242</v>
+      </c>
       <c r="D31" s="39" t="s">
         <v>219</v>
       </c>
@@ -4118,7 +4170,9 @@
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="39" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -4285,7 +4339,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F12:F15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,9 +4736,11 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>244</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F5B32-CDF5-4E9E-AD05-0651A604DE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80344BD6-C316-4E49-AC9E-3468BF2BB4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -2601,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2678765-AEBB-4924-B6A9-4BB729875067}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3182,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B70320-D433-4CAF-98BA-F1EA5CBCC8A0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80344BD6-C316-4E49-AC9E-3468BF2BB4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F17B4-F9D6-484D-BA93-891B3055B308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="261">
   <si>
     <t>Vakken</t>
   </si>
@@ -812,15 +812,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Voormiddag: afbreken en weghalen van de klokken.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Voormiddag: afbreken en weghalen van de klokken. In de namiddag start de nieuwe briefing.
 </t>
   </si>
   <si>
     <t>communicatie taken maken</t>
+  </si>
+  <si>
+    <t>UITGAAN MET THEO</t>
+  </si>
+  <si>
+    <t>Uitgaan met theo en geld hebben voor uitgaan</t>
+  </si>
+  <si>
+    <t>FEESTJE ZOE!!!!!</t>
+  </si>
+  <si>
+    <t>INTOX DRIVER WINTER EVENT</t>
+  </si>
+  <si>
+    <t>Fruitsap (heeft alex al?)  voor pisang en eten meenemen</t>
+  </si>
+  <si>
+    <t>LES SKIPPEN VOOR UITGAAN NAAR THEO?</t>
+  </si>
+  <si>
+    <t>FILMEN VOOR VIDEO KUNST EN MAATSCHAPPIJ</t>
+  </si>
+  <si>
+    <t>15U20 FEEDBACK HANS!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>video editen voor storytelling</t>
+  </si>
+  <si>
+    <t>materiaal kopen boekbinden</t>
+  </si>
+  <si>
+    <t>NAAM VINDEN KLOK</t>
+  </si>
+  <si>
+    <t>Extra’s (geluid), (posters voor de doos design), Opstellen en in werking stellen van de klok</t>
+  </si>
+  <si>
+    <t>5 euro iedereen</t>
+  </si>
+  <si>
+    <t>webdesign indienen</t>
+  </si>
+  <si>
+    <t>klok houten frame bouwen</t>
+  </si>
+  <si>
+    <t>SETVERSLAG OOK INDIENEN</t>
   </si>
 </sst>
 </file>
@@ -2601,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2678765-AEBB-4924-B6A9-4BB729875067}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3096,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -3182,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B70320-D433-4CAF-98BA-F1EA5CBCC8A0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,11 +3439,15 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="E16" s="36" t="s">
+        <v>251</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="E17" s="37"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -3413,6 +3461,7 @@
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -3427,6 +3476,7 @@
       <c r="D19" s="38" t="s">
         <v>96</v>
       </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -3441,6 +3491,7 @@
       <c r="D20" s="29" t="s">
         <v>122</v>
       </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3451,6 +3502,7 @@
       <c r="D21" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="E21" s="37"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -3505,13 +3557,20 @@
       <c r="B26" s="16">
         <v>0.75</v>
       </c>
+      <c r="E26" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
+      <c r="E27" s="37"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
@@ -3587,8 +3646,12 @@
       <c r="G31" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -3601,8 +3664,12 @@
       <c r="E32" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>258</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
@@ -3617,8 +3684,12 @@
       <c r="E33" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>259</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
@@ -3630,37 +3701,55 @@
       <c r="D34" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="39" t="s">
+        <v>246</v>
+      </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="33"/>
+      <c r="C35" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>249</v>
+      </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="C36" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>250</v>
+      </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="39" t="s">
+        <v>239</v>
+      </c>
       <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="E37" s="39" t="s">
+        <v>260</v>
+      </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
@@ -3668,7 +3757,9 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="39" t="s">
+        <v>257</v>
+      </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -3771,7 +3862,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4170,9 +4261,7 @@
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="39" t="s">
-        <v>243</v>
-      </c>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -4739,7 +4828,7 @@
     <row r="32" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C12DCA-C9F3-4EA5-BC4A-3C3B8015BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC2719-7163-4F85-9E2A-383593E95B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="276">
   <si>
     <t>Vakken</t>
   </si>
@@ -688,9 +688,6 @@
   </si>
   <si>
     <t>Alles inpakken in de avond</t>
-  </si>
-  <si>
-    <t>10 DEC KUNST DING VOORSTELLEN</t>
   </si>
   <si>
     <t>Deadline alles communicatie taken</t>
@@ -846,9 +843,6 @@
     <t>webdesign indienen</t>
   </si>
   <si>
-    <t>klok houten frame bouwen</t>
-  </si>
-  <si>
     <t>SETVERSLAG OOK INDIENEN</t>
   </si>
   <si>
@@ -895,6 +889,27 @@
   </si>
   <si>
     <t>C&amp;O: PROJECTPLAN</t>
+  </si>
+  <si>
+    <t>10 DEC KUNST DING VOORSTELLEN ONS GROEPJE</t>
+  </si>
+  <si>
+    <t>VIDEO EDITEN KUNST EN MAATSCHAPPIJ</t>
+  </si>
+  <si>
+    <t>theo makeup stuff</t>
+  </si>
+  <si>
+    <t>volgende week vrijdag aan stage laten weten van vroemvroem</t>
+  </si>
+  <si>
+    <t>NAAR GAMESTATE GAAN VOOR TICKETS EXPIREN</t>
+  </si>
+  <si>
+    <t>C&amp;O: Projectplan</t>
+  </si>
+  <si>
+    <t>C&amp;O: ondernemingsplan en offerte</t>
   </si>
 </sst>
 </file>
@@ -2819,7 +2834,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>66</v>
@@ -3044,22 +3059,22 @@
         <v>186</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>197</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="43" t="s">
@@ -3069,13 +3084,13 @@
         <v>196</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -3083,16 +3098,16 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I32" s="33"/>
     </row>
@@ -3102,10 +3117,10 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -3117,7 +3132,7 @@
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -3129,7 +3144,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -3259,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B70320-D433-4CAF-98BA-F1EA5CBCC8A0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,7 +3415,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -3473,7 +3488,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -3489,14 +3504,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -3507,14 +3522,14 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -3603,7 +3618,7 @@
         <v>0.75</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3653,120 +3668,116 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="H30" s="39" t="s">
+      <c r="I30" s="39" t="s">
         <v>226</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="43" t="s">
         <v>195</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>254</v>
+        <v>223</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>262</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H32" s="33"/>
+        <v>265</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>252</v>
+      </c>
       <c r="I32" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="39" t="s">
         <v>264</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>254</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="49" t="s">
-        <v>206</v>
+      <c r="C34" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>267</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="43" t="s">
         <v>245</v>
       </c>
       <c r="F35" s="33"/>
@@ -3774,14 +3785,14 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
     </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D36" s="33"/>
-      <c r="E36" s="39" t="s">
-        <v>246</v>
+      <c r="E36" s="43" t="s">
+        <v>253</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -3791,12 +3802,10 @@
     <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="33"/>
-      <c r="E37" s="39" t="s">
-        <v>255</v>
-      </c>
+      <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
@@ -3805,7 +3814,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -3909,7 +3918,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4058,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>69</v>
@@ -4122,7 +4131,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -4280,7 +4289,7 @@
         <v>154</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>127</v>
@@ -4288,8 +4297,12 @@
       <c r="F30" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="I30" s="33" t="s">
         <v>155</v>
       </c>
@@ -4297,10 +4310,10 @@
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="39" t="s">
@@ -4309,20 +4322,20 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -4331,10 +4344,12 @@
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="39" t="s">
+        <v>271</v>
+      </c>
       <c r="E33" s="33"/>
       <c r="F33" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -4346,18 +4361,20 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="F35" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -4487,7 +4504,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4644,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -4874,10 +4891,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4887,10 +4904,10 @@
     <row r="32" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -5193,7 +5210,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -5428,7 +5445,7 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>187</v>
@@ -5603,7 +5620,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5878,13 +5895,15 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>273</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
@@ -6053,7 +6072,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,7 +6349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -6338,7 +6357,9 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="39" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -6348,7 +6369,9 @@
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="39" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
@@ -9148,7 +9171,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="33"/>
@@ -12482,7 +12505,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -15244,7 +15267,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC2719-7163-4F85-9E2A-383593E95B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B56B2B-FD3F-4B2C-9FF7-B0E2B9602B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="282">
   <si>
     <t>Vakken</t>
   </si>
@@ -910,6 +910,24 @@
   </si>
   <si>
     <t>C&amp;O: ondernemingsplan en offerte</t>
+  </si>
+  <si>
+    <t>Afspraak om 9u in het atelier (want de goedheilig man komt langs), nadien gaan we samen alle klokken gaan bekijken. Zorg dat je met de fiets bent, wie echt geen fiets heeft kan voor de laatste locatie mee met Kilian in de auto.</t>
+  </si>
+  <si>
+    <t>Opbouw van jullie klok, jullie hebben de hele dag tijd om deze op te bouwen. Het atelier is ondertussen open en de docenten zijn aanwezig mochten jullie vragen hebben. Neem voldoende beeldmateriaal van de opbouw!</t>
+  </si>
+  <si>
+    <t>Briefing van de laatste opdracht om 9u</t>
+  </si>
+  <si>
+    <t>teaser klok maken (5s, mp4, 25fps, 1080p, 16:9)</t>
+  </si>
+  <si>
+    <t>klok ding op portfolio toevoegen</t>
+  </si>
+  <si>
+    <t>alles op google doc toevoegen</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1110,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,9 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -3274,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B70320-D433-4CAF-98BA-F1EA5CBCC8A0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="B1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,9 +3745,7 @@
       <c r="G32" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H32" s="39" t="s">
-        <v>252</v>
-      </c>
+      <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
         <v>259</v>
       </c>
@@ -3745,7 +3758,7 @@
       <c r="D33" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="33" t="s">
         <v>235</v>
       </c>
       <c r="F33" s="33"/>
@@ -3917,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454AD567-9F12-4997-8D76-BE3FC82557ED}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +4320,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
         <v>237</v>
@@ -4319,7 +4332,9 @@
       <c r="F31" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>276</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="39" t="s">
         <v>255</v>
@@ -4341,9 +4356,11 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" s="39" t="s">
         <v>271</v>
       </c>
@@ -4355,9 +4372,11 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>279</v>
+      </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="39" t="s">
@@ -4384,7 +4403,9 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="F36" s="39" t="s">
+        <v>252</v>
+      </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -4503,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,9 +4936,11 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>278</v>
+      </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -4927,7 +4950,9 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -4937,7 +4962,9 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="C35" s="39" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B56B2B-FD3F-4B2C-9FF7-B0E2B9602B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633BED5-7048-4483-A6F8-DD577AD38BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -882,15 +882,6 @@
     <t>HANDTRACKING MAKEN</t>
   </si>
   <si>
-    <t>C&amp;O: ONDERNEMINGSPLAN &amp; FINANCIEELPLAN</t>
-  </si>
-  <si>
-    <t>C&amp;O: KOSTPRIJSBEREKENING &amp; OFFERTE</t>
-  </si>
-  <si>
-    <t>C&amp;O: PROJECTPLAN</t>
-  </si>
-  <si>
     <t>10 DEC KUNST DING VOORSTELLEN ONS GROEPJE</t>
   </si>
   <si>
@@ -928,6 +919,15 @@
   </si>
   <si>
     <t>alles op google doc toevoegen</t>
+  </si>
+  <si>
+    <t>Schleiper dingen kopen voor bookmaking</t>
+  </si>
+  <si>
+    <t>Bookmaking inhalen</t>
+  </si>
+  <si>
+    <t>rest voor klok opdracht al maken (visuals enzo)</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1192,6 +1192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -3930,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454AD567-9F12-4997-8D76-BE3FC82557ED}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,6 +4149,9 @@
       <c r="D16" s="36" t="s">
         <v>219</v>
       </c>
+      <c r="F16" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
@@ -4154,6 +4160,7 @@
       <c r="D17" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="F17" s="37"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -4168,6 +4175,7 @@
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F18" s="37"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -4183,6 +4191,7 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
+      <c r="F19" s="37"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -4198,6 +4207,7 @@
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -4207,6 +4217,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -4298,7 +4309,7 @@
     </row>
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -4311,10 +4322,10 @@
         <v>68</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I30" s="33" t="s">
         <v>155</v>
@@ -4325,7 +4336,7 @@
       <c r="C31" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="43" t="s">
         <v>218</v>
       </c>
       <c r="E31" s="33"/>
@@ -4333,9 +4344,11 @@
         <v>70</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H31" s="33"/>
+        <v>273</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="I31" s="39" t="s">
         <v>255</v>
       </c>
@@ -4350,50 +4363,48 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="39" t="s">
+        <v>281</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="39" t="s">
-        <v>277</v>
+      <c r="C33" s="43" t="s">
+        <v>274</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="39" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="49" t="s">
+        <v>276</v>
+      </c>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="39" t="s">
-        <v>279</v>
-      </c>
+      <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="39" t="s">
-        <v>268</v>
-      </c>
+      <c r="F34" s="39"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="39" t="s">
-        <v>270</v>
-      </c>
+      <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -4403,9 +4414,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="39" t="s">
-        <v>252</v>
-      </c>
+      <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -4524,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4924,7 @@
         <v>210</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4939,7 +4948,7 @@
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="39" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -4951,7 +4960,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -4963,7 +4972,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
@@ -5929,7 +5938,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -6385,7 +6394,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -6397,7 +6406,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633BED5-7048-4483-A6F8-DD577AD38BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E2956-C73E-41A5-AD60-6223C091E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="284">
   <si>
     <t>Vakken</t>
   </si>
@@ -282,13 +282,7 @@
     <t>9U: hokus focus</t>
   </si>
   <si>
-    <t>Studio Digital: opbouw + museumnacht (wio - thomas - kilian)</t>
-  </si>
-  <si>
     <t>Afbraak</t>
-  </si>
-  <si>
-    <t>Studio Digital: Deadline opdracht #2</t>
   </si>
   <si>
     <t>10U: feedback opdracht #3</t>
@@ -928,6 +922,18 @@
   </si>
   <si>
     <t>rest voor klok opdracht al maken (visuals enzo)</t>
+  </si>
+  <si>
+    <t>8:30 AL AAN INSTALLATIE ZIJN VOOR TE TESTEN!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>uitgebrprint aritkel binnen 2 weken AFGEPRINT IN DE LES MEEHEBBEN</t>
+  </si>
+  <si>
+    <t>STORYTELLING DEADLINE MYTHOLOGIE PRESENTATIE (BROWSER EXTENSION MOCKUP DIE TOONT HOE JE DOOMSCROLLED/ALS HET TE VEEL IS, DAN CRASHED HET SCHIP EN VERLIES JE JE STREAK EN VERLIES JE VAN JE VRIENDEN)</t>
+  </si>
+  <si>
+    <t>15/12 20u visual design stickers</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1192,9 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -2822,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -2836,7 +2839,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -2852,7 +2855,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>66</v>
@@ -2881,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -2894,7 +2897,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -3070,45 +3073,45 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -3116,16 +3119,16 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I32" s="33"/>
     </row>
@@ -3135,10 +3138,10 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -3150,7 +3153,7 @@
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -3162,7 +3165,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -3403,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -3417,7 +3420,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -3433,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -3462,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -3475,7 +3478,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -3506,7 +3509,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -3522,14 +3525,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -3540,14 +3543,14 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -3561,7 +3564,7 @@
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -3636,7 +3639,7 @@
         <v>0.75</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3686,87 +3689,87 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>224</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -3774,13 +3777,13 @@
     <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -3790,11 +3793,11 @@
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -3804,11 +3807,11 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -3818,7 +3821,7 @@
     <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
@@ -3830,7 +3833,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -3934,7 +3937,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,6 +4036,9 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -4044,10 +4050,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="G8" s="4">
+        <v>204</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -4058,10 +4064,10 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -4074,10 +4080,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -4088,9 +4094,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="G11" s="40" t="s">
-        <v>45</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -4103,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -4116,7 +4120,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -4147,10 +4151,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -4307,86 +4311,84 @@
         <v>45998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="33"/>
+        <v>216</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="F31" s="39" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E32" s="33"/>
-      <c r="F32" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="H32" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="39" t="s">
-        <v>252</v>
-      </c>
+      <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="49" t="s">
-        <v>276</v>
-      </c>
+      <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -4534,7 +4536,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -4658,7 +4660,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -4674,7 +4676,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -4685,7 +4687,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3"/>
       <c r="G11" s="40" t="s">
@@ -4703,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -4716,7 +4718,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -4792,7 +4794,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
@@ -4902,13 +4904,13 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4918,28 +4920,30 @@
     <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="33"/>
+        <v>256</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>282</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -4948,7 +4952,7 @@
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -4960,7 +4964,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -4972,7 +4976,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
@@ -5106,7 +5110,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,7 +5220,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -5230,7 +5234,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -5246,7 +5250,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -5275,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
@@ -5288,7 +5292,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
@@ -5463,16 +5467,18 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>283</v>
+      </c>
       <c r="D30" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5481,21 +5487,23 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="39" t="s">
+        <v>281</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -5914,19 +5922,19 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -5938,7 +5946,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -6366,23 +6374,23 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -6394,7 +6402,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -6406,7 +6414,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -6958,7 +6966,7 @@
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -7516,7 +7524,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -7528,7 +7536,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -8070,10 +8078,10 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -8366,7 +8374,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -8380,7 +8388,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -8486,7 +8494,7 @@
         <v>204</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -8502,7 +8510,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>45</v>
@@ -8625,17 +8633,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -8645,17 +8653,17 @@
         <v>38</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I31" s="33"/>
     </row>
@@ -8665,11 +8673,11 @@
         <v>33</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -9207,7 +9215,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="33"/>
@@ -10323,7 +10331,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -11981,7 +11989,7 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -12541,7 +12549,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -14493,7 +14501,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -14507,7 +14515,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -14604,7 +14612,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -14621,7 +14629,7 @@
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -14739,17 +14747,17 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -14758,7 +14766,7 @@
       <c r="B31" s="33"/>
       <c r="C31" s="39"/>
       <c r="D31" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -15303,7 +15311,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -16413,10 +16421,10 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -17269,7 +17277,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="14"/>
     </row>
@@ -17296,7 +17304,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17424,7 +17432,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17540,7 +17548,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -17860,7 +17868,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -18000,7 +18008,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
       <c r="G21" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -18101,7 +18109,7 @@
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -18426,7 +18434,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -18666,14 +18674,14 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -19231,7 +19239,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -19243,7 +19251,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -19554,7 +19562,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -20347,17 +20355,17 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -20645,7 +20653,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -20659,7 +20667,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -20675,7 +20683,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -20758,7 +20766,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -20775,7 +20783,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -20791,7 +20799,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="3"/>
@@ -20830,7 +20838,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -20907,43 +20915,43 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -20951,13 +20959,13 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -20969,7 +20977,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -21485,10 +21493,10 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -22043,25 +22051,25 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -22349,7 +22357,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -22363,7 +22371,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -22465,7 +22473,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -22479,13 +22487,13 @@
         <v>204</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -22501,7 +22509,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="45"/>
@@ -22611,82 +22619,82 @@
     <row r="30" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -22696,11 +22704,11 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
@@ -22712,7 +22720,7 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -22954,7 +22962,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -22968,7 +22976,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -23049,7 +23057,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -23072,7 +23080,7 @@
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -23090,7 +23098,7 @@
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>204</v>
@@ -23214,41 +23222,41 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -23257,14 +23265,14 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -23273,10 +23281,10 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -23287,7 +23295,7 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -23299,7 +23307,7 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -23543,7 +23551,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>6</v>
@@ -23557,7 +23565,7 @@
         <v>204</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="41">
         <v>204</v>
@@ -23646,7 +23654,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>6</v>
@@ -23663,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="41">
         <v>204</v>
@@ -23798,26 +23806,26 @@
         <v>57</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -23828,10 +23836,10 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -23842,7 +23850,7 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -24104,7 +24112,7 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>6</v>
@@ -24157,7 +24165,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>59</v>
@@ -24177,16 +24185,16 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>174</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -24262,7 +24270,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D19" s="41">
         <v>204</v>
@@ -24287,12 +24295,12 @@
         <v>44</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -24300,7 +24308,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
@@ -24319,7 +24327,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="14"/>
@@ -24410,34 +24418,34 @@
         <v>61</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -24445,7 +24453,7 @@
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -24457,7 +24465,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -24469,7 +24477,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -24941,35 +24949,35 @@
         <v>41</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -24981,7 +24989,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C514E206-169A-4147-9365-C614A1AE0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E6BBC-9109-4863-B8A4-6B4B5E8AEF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="13" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="297">
   <si>
     <t>Vakken</t>
   </si>
@@ -962,6 +962,28 @@
   </si>
   <si>
     <t>Final draft test/presentatie: week voorafgaand aan jury</t>
+  </si>
+  <si>
+    <t>Email toevoegen card
+Behance the timeline is lokaale link hahahahav beaoek de ervarinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communicatie uitgeprinte artikel en fluostiften meedoen </t>
+  </si>
+  <si>
+    <t>PORTFOLIO: portfolio, visitekaartje, motivatiebrief
+30, 0, 255
+#ff9100
+Fonts:
+Geist Mono
+Gallient
+moeten inhoudelijk tonen wie je bent en wat je kan, en vormellijk passen
+naam en contactgegevens vermelden
+ook motivatiebrief in je stijl!
+Motivatiemail van communicatie gebruiken hiervoor</t>
+  </si>
+  <si>
+    <t>portfolio: 16 DECEMBER PRINT EN DIGITAAL INDIENEN</t>
   </si>
 </sst>
 </file>
@@ -4564,6 +4586,592 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>12</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3/Index!R3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="26">
+        <f>Index!R4+(7*(C3-1))</f>
+        <v>45999</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5+1</f>
+        <v>46000</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:I5" si="0">D5+1</f>
+        <v>46001</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
+        <v>46002</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>46003</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>46004</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4">
+        <v>204</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="G11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="12">
+        <v>115</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="4">
+        <v>204</v>
+      </c>
+      <c r="D19" s="38">
+        <v>115</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="38"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C5</f>
+        <v>45999</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="1">D5</f>
+        <v>46000</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>46001</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
+        <v>46002</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>46003</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>46004</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:I5 C29:I29">
+    <cfRule type="timePeriod" dxfId="28" priority="1" timePeriod="today">
+      <formula>FLOOR(C5,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C052F8-7614-49D7-8F06-5DD402FF1BAA}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
@@ -4588,11 +5196,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -4628,31 +5236,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46004</v>
+        <v>46011</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46005</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -4705,7 +5313,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>45</v>
@@ -4716,7 +5324,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3"/>
       <c r="G11" s="40" t="s">
@@ -4792,592 +5400,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="38">
-        <v>115</v>
-      </c>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="38"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30">
-        <f>C5</f>
-        <v>45999</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46000</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>46001</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="1"/>
-        <v>46002</v>
-      </c>
-      <c r="G29" s="30">
-        <f t="shared" si="1"/>
-        <v>46003</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="1"/>
-        <v>46004</v>
-      </c>
-      <c r="I29" s="30">
-        <f t="shared" si="1"/>
-        <v>46005</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="28" priority="1" timePeriod="today">
-      <formula>FLOOR(C5,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C052F8-7614-49D7-8F06-5DD402FF1BAA}">
-  <dimension ref="B2:I46"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22">
-        <v>13</v>
-      </c>
-      <c r="D3" s="24">
-        <f>C3/Index!R3</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26">
-        <f>Index!R4+(7*(C3-1))</f>
-        <v>46006</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5+1</f>
-        <v>46007</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46008</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>46009</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>46010</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>46011</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>46012</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="G11" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
@@ -5524,9 +5546,11 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" s="39" t="s">
         <v>206</v>
       </c>
@@ -5540,10 +5564,14 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>296</v>
+      </c>
       <c r="E32" s="39" t="s">
         <v>278</v>
       </c>
@@ -5552,11 +5580,13 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="E33" s="39" t="s">
+        <v>294</v>
+      </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E6BBC-9109-4863-B8A4-6B4B5E8AEF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368234D0-5697-489E-9685-3F40AE6DF9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="13" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="298">
   <si>
     <t>Vakken</t>
   </si>
@@ -950,9 +950,6 @@
   </si>
   <si>
     <t>16:30 C&amp;O Online feedback</t>
-  </si>
-  <si>
-    <t>DOCUMENTAIRE KILIAN MAKEN</t>
   </si>
   <si>
     <t>deadline opdracht digitaal: dinsdag 20 januari 2026 – op de jury</t>
@@ -984,6 +981,12 @@
   </si>
   <si>
     <t>portfolio: 16 DECEMBER PRINT EN DIGITAAL INDIENEN</t>
+  </si>
+  <si>
+    <t>DOCUMENTAIRE KILIAN MAKEN, MIOET KLAAR ZIJN VOOR PRINT</t>
+  </si>
+  <si>
+    <t>Studio digitaal pitch maken ofzo</t>
   </si>
 </sst>
 </file>
@@ -3987,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454AD567-9F12-4997-8D76-BE3FC82557ED}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4586,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,10 +4969,10 @@
         <v>124</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -4985,7 +4988,9 @@
       <c r="E31" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="39" t="s">
+        <v>297</v>
+      </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -5172,7 +5177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C052F8-7614-49D7-8F06-5DD402FF1BAA}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -5549,7 +5554,7 @@
     <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>206</v>
@@ -5567,10 +5572,10 @@
     <row r="32" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>278</v>
@@ -5585,7 +5590,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -7593,7 +7598,7 @@
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -7611,7 +7616,7 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -8169,7 +8174,7 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -8921,7 +8926,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9292,10 +9297,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="39"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -13915,7 +13920,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14291,7 +14296,9 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>253</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -15388,9 +15395,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>253</v>
-      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368234D0-5697-489E-9685-3F40AE6DF9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CCE0A9-AAD8-456C-82BD-2ECE179F1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="306">
   <si>
     <t>Vakken</t>
   </si>
@@ -959,10 +959,6 @@
   </si>
   <si>
     <t>Final draft test/presentatie: week voorafgaand aan jury</t>
-  </si>
-  <si>
-    <t>Email toevoegen card
-Behance the timeline is lokaale link hahahahav beaoek de ervarinh</t>
   </si>
   <si>
     <t xml:space="preserve">communicatie uitgeprinte artikel en fluostiften meedoen </t>
@@ -987,6 +983,34 @@
   </si>
   <si>
     <t>Studio digitaal pitch maken ofzo</t>
+  </si>
+  <si>
+    <t>email toevoegen behance card</t>
+  </si>
+  <si>
+    <t>Op feedback gaan</t>
+  </si>
+  <si>
+    <t>Email toevoegen card
+Behance</t>
+  </si>
+  <si>
+    <t>BOOKMAKING INHALEN HEEL DE DAG!</t>
+  </si>
+  <si>
+    <t>VANDAAG COMMUNICATIE DING MAKEN EN AFPRINTEN</t>
+  </si>
+  <si>
+    <t>BOOKMAKING INHALEN</t>
+  </si>
+  <si>
+    <t>CROSSMEDIA INDIENEN</t>
+  </si>
+  <si>
+    <t>WEBDESIGN INHALEN ENE LES</t>
+  </si>
+  <si>
+    <t>FYSIEK INDIENEN? NAAR LES?</t>
   </si>
 </sst>
 </file>
@@ -4589,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140DD4B-5510-45F0-8D68-5B38030BE4EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4969,7 +4993,7 @@
         <v>124</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>290</v>
@@ -4989,7 +5013,7 @@
         <v>262</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -5177,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C052F8-7614-49D7-8F06-5DD402FF1BAA}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,6 +5429,9 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="28" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
@@ -5419,6 +5446,9 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
+      <c r="D19" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="E19" s="4">
         <v>309</v>
       </c>
@@ -5434,6 +5464,9 @@
       </c>
       <c r="C20" s="40" t="s">
         <v>44</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3"/>
@@ -5544,7 +5577,9 @@
       <c r="E30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>298</v>
+      </c>
       <c r="G30" s="39" t="s">
         <v>198</v>
       </c>
@@ -5554,7 +5589,7 @@
     <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>206</v>
@@ -5562,46 +5597,60 @@
       <c r="E31" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="G31" s="39" t="s">
         <v>285</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="39" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>297</v>
+      </c>
       <c r="E33" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>302</v>
+      </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
@@ -5610,7 +5659,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="39" t="s">
+        <v>304</v>
+      </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -8347,7 +8398,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795475DC-C8BD-4E2E-BDE3-1903BA785418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC6201-0538-4469-A013-238431A85014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="13" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
@@ -5234,7 +5234,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CBF834-D691-4718-8841-11903303C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18CC02-F693-4F44-87AE-950512189B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="16" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="17" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="332">
   <si>
     <t>Vakken</t>
   </si>
@@ -1059,6 +1059,63 @@
   </si>
   <si>
     <t xml:space="preserve">25 februari vrij? Tim burton - 19u - zondag concert </t>
+  </si>
+  <si>
+    <t>JURY DIGITAAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wio, Thomas, Kilian, Dennis Hellebaut, Sarah Mayer </t>
+  </si>
+  <si>
+    <t>Beste studenten,
+De feestdagen staan voor de deur! We willen jullie alvast bedanken voor een boeiend en energiek eerste semester.
+Zoals jullie weten, ronden we dit semester af met een jury. Hieronder vinden jullie alle praktische informatie.
+Jury
+Datum: dinsdag 20 januari
+Uur: van 9u tot 18u
+(De definitieve planning per student komt één week vooraf online.)
+Interne juryleden:
+Wio, Thomas &amp; Kilian
+Externe juryleden:
+    Dennis Hellebaut – Senior Designer bij Planet B
+    Sarah Mayer – Immersive Artist
+Presentatie
+Jullie worden beoordeeld op de drie opdrachten van het eerste semester, aangevuld met de rushes (bundel de rushes in max 4 slides en licht kort toe). Zorg voor een duidelijke, logisch opgebouwde presentatie met voldoende context, beeldmateriaal en behind the scenes, zodat elk project helder en coherent wordt voorgesteld.
+De presentaties verlopen per groep van de ‘klok’-opdracht.
+Eerst presenteren jullie deze gezamenlijke opdracht samen, daarna komt elk groepslid individueel aan bod.
+Proefjury
+Op vrijdag 16 januari organiseren we een verplichte proefjury.
+Je presenteert hier alsof het de effectieve jury is. De feedback focust uitsluitend op je presentatiewijze (niet op het werk zelf) en kan je meenemen naar de finale jurypresentatie.
+Planning
+    05/01: Feedback
+    09/01: Feedback
+    12/01: Feedback
+    16/01: Proefjury
+    19/01: Feedback (vrijblijvend, enkel voormiddag)
+    20/01: Jury
+Geniet van de feestdagen en tot in januari!
+Wio, Thomas &amp; Kilian</t>
+  </si>
+  <si>
+    <t>05/01: Feedback</t>
+  </si>
+  <si>
+    <t>09/01: Feedback</t>
+  </si>
+  <si>
+    <t>12/01: Feedback</t>
+  </si>
+  <si>
+    <t>16/01: Proefjury</t>
+  </si>
+  <si>
+    <t>19/01: Feedback (vrijblijvend, enkel voormiddag)</t>
+  </si>
+  <si>
+    <t>Op vrijdag 16 januari organiseren we een verplichte proefjury.</t>
+  </si>
+  <si>
+    <t>Je presenteert hier alsof het de effectieve jury is. De feedback focust uitsluitend op je presentatiewijze (niet op het werk zelf) en kan je meenemen naar de finale jurypresentatie.</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1298,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1324,6 +1381,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -6797,8 +6857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7FA38-CAD7-48CE-9233-76A9DB3200F0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7191,13 +7251,17 @@
       <c r="F30" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>326</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>325</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -7369,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5EDA3-8AB7-4F0B-BBA3-3059B339E855}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7765,7 +7829,9 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>327</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -7783,29 +7849,35 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="39" t="s">
+        <v>328</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="39" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="39" t="s">
+        <v>330</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="39" t="s">
+        <v>331</v>
+      </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
@@ -7945,7 +8017,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8054,8 +8126,8 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
+      <c r="D8" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -8068,8 +8140,8 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
+      <c r="D9" s="4">
+        <v>204</v>
       </c>
       <c r="G9" s="4">
         <v>204</v>
@@ -8077,12 +8149,14 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="50" t="s">
+        <v>323</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -8090,7 +8164,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -8100,7 +8174,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
@@ -8114,7 +8188,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="12">
         <v>115</v>
       </c>
@@ -8130,7 +8204,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="10"/>
       <c r="F14" s="29"/>
       <c r="G14" s="3"/>
@@ -8140,7 +8214,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="10"/>
       <c r="F15" s="29"/>
       <c r="G15" s="3"/>
@@ -8151,12 +8225,14 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -8168,9 +8244,7 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
@@ -8186,9 +8260,7 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="4">
         <v>309</v>
       </c>
@@ -8204,7 +8276,7 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -8214,7 +8286,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
       <c r="G21" s="3"/>
@@ -8226,7 +8298,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
@@ -8238,7 +8310,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
@@ -8252,7 +8324,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29"/>
       <c r="G24" s="3"/>
@@ -8262,7 +8334,7 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="29"/>
       <c r="G25" s="3"/>
@@ -8330,7 +8402,9 @@
     </row>
     <row r="31" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>329</v>
+      </c>
       <c r="D31" s="39" t="s">
         <v>288</v>
       </c>
@@ -8342,10 +8416,12 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="39" t="s">
+        <v>324</v>
+      </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18CC02-F693-4F44-87AE-950512189B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54582295-2126-4704-B3EC-B2287907AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="17" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="16" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="334">
   <si>
     <t>Vakken</t>
   </si>
@@ -1116,6 +1116,12 @@
   </si>
   <si>
     <t>Je presenteert hier alsof het de effectieve jury is. De feedback focust uitsluitend op je presentatiewijze (niet op het werk zelf) en kan je meenemen naar de finale jurypresentatie.</t>
+  </si>
+  <si>
+    <t>VROEM VROEM VANAF 13.30 OP AGENDA ZETTEN</t>
+  </si>
+  <si>
+    <t>Vroem vroem animatie</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1304,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1384,6 +1390,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -2261,7 +2268,7 @@
   <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,7 +5319,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7FA38-CAD7-48CE-9233-76A9DB3200F0}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,6 +7085,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
+      <c r="C17" s="36" t="s">
+        <v>333</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -7086,8 +7096,8 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
+      <c r="C18" s="51">
+        <v>0.5625</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>26</v>
@@ -7104,9 +7114,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
+      <c r="C19" s="37"/>
       <c r="D19" s="29" t="s">
         <v>1</v>
       </c>
@@ -7124,9 +7132,7 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
@@ -7136,7 +7142,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
@@ -7148,7 +7154,7 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>9</v>
@@ -7160,7 +7166,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -7174,7 +7180,7 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29"/>
@@ -7184,7 +7190,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
       <c r="F25" s="29"/>
@@ -7271,7 +7277,9 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="39"/>
+      <c r="C32" s="39" t="s">
+        <v>332</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -7433,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5EDA3-8AB7-4F0B-BBA3-3059B339E855}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539CD67-2F40-481E-9431-86386536E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E98F2A-40E5-4E02-8037-8307C00E5D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="17" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="19" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="341">
   <si>
     <t>Vakken</t>
   </si>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>WERKEN VROEMVROEM DINGEN</t>
+  </si>
+  <si>
+    <t>BIJ JAN VROEM VROEM</t>
   </si>
 </sst>
 </file>
@@ -7470,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5EDA3-8AB7-4F0B-BBA3-3059B339E855}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7583,6 +7586,9 @@
       <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
+      <c r="F8" s="36" t="s">
+        <v>340</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -7597,6 +7603,7 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="F9" s="37"/>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -7611,6 +7618,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="29"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="40" t="s">
         <v>45</v>
       </c>
@@ -7623,6 +7631,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="29"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -7636,9 +7645,7 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
+      <c r="F12" s="37"/>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -7650,9 +7657,7 @@
       <c r="E13" s="12">
         <v>115</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="F13" s="37"/>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -7664,7 +7669,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="29"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -7674,7 +7679,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7683,7 +7688,7 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
@@ -7692,7 +7697,7 @@
       <c r="C17" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="37"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -7709,7 +7714,7 @@
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -7725,7 +7730,7 @@
       <c r="E19" s="4">
         <v>309</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -7739,7 +7744,7 @@
       <c r="C20" s="37"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7749,7 +7754,7 @@
       <c r="C21" s="37"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -7763,7 +7768,7 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -7775,7 +7780,7 @@
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -7787,7 +7792,7 @@
       <c r="C24" s="37"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -7797,7 +7802,7 @@
       <c r="C25" s="37"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -9209,8 +9214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79091C00-A9BB-4756-B381-F6C066F873BF}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E98F2A-40E5-4E02-8037-8307C00E5D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D2CE4-286F-4D68-B7CC-E8C18A1D2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="19" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="17" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="342">
   <si>
     <t>Vakken</t>
   </si>
@@ -1154,6 +1154,10 @@
   </si>
   <si>
     <t>BIJ JAN VROEM VROEM</t>
+  </si>
+  <si>
+    <t>hier voormiddag
+10U</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1340,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,6 +1427,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -7473,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5EDA3-8AB7-4F0B-BBA3-3059B339E855}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,7 +7602,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="4">
         <v>204</v>
@@ -7603,7 +7610,9 @@
       <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="52" t="s">
+        <v>341</v>
+      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -9214,8 +9223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79091C00-A9BB-4756-B381-F6C066F873BF}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D2CE4-286F-4D68-B7CC-E8C18A1D2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8C8F1-D342-4DAC-A086-A906F32645C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="17" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="26" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="347">
   <si>
     <t>Vakken</t>
   </si>
@@ -1158,6 +1158,21 @@
   <si>
     <t>hier voormiddag
 10U</t>
+  </si>
+  <si>
+    <t>guy van adya in gent zien</t>
+  </si>
+  <si>
+    <t>in week gy van adya</t>
+  </si>
+  <si>
+    <t>30ste vrijdag mss naar theo jury</t>
+  </si>
+  <si>
+    <t>terugkomdag 1</t>
+  </si>
+  <si>
+    <t>terugkomdag 2</t>
   </si>
 </sst>
 </file>
@@ -7480,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5EDA3-8AB7-4F0B-BBA3-3059B339E855}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,7 +7654,9 @@
       <c r="C11" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
@@ -9224,7 +9241,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,9 +9616,15 @@
       <c r="D30" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>344</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
@@ -9780,7 +9803,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10153,8 +10176,12 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>342</v>
+      </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -10334,7 +10361,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,7 +10737,9 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>345</v>
+      </c>
       <c r="I30" s="39" t="s">
         <v>175</v>
       </c>
@@ -12000,7 +12029,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12374,7 +12403,9 @@
       <c r="C30" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="39" t="s">
+        <v>252</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -13111,8 +13142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A346DF-507B-4C4C-9B17-31595D3187EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13487,7 +13518,9 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>346</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8C8F1-D342-4DAC-A086-A906F32645C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2998CA6-A152-4FF8-BC2F-E709AEF2C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="26" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="18" activeTab="20" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="378">
   <si>
     <t>Vakken</t>
   </si>
@@ -1174,6 +1174,101 @@
   <si>
     <t>terugkomdag 2</t>
   </si>
+  <si>
+    <t>indienen startverslag
+15-02</t>
+  </si>
+  <si>
+    <t>indienen "eindverslag &amp; kritische reflectie"
+11-05</t>
+  </si>
+  <si>
+    <t>week van bachelorproef</t>
+  </si>
+  <si>
+    <t>1 week voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>2 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>3 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>4 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>5 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>6 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>7 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>8 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>9 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>10 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>11 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>12 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>13 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>14 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>15 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>16 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>17 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>18 weken voor deadline bachelorproef</t>
+  </si>
+  <si>
+    <t>1 week voor einde stage</t>
+  </si>
+  <si>
+    <t>2 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>3 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>4 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>5 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>6 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>7 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>8 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>9 weken voor einde stage</t>
+  </si>
+  <si>
+    <t>10 weken voor einde stage</t>
+  </si>
 </sst>
 </file>
 
@@ -1183,7 +1278,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1343,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9240,8 +9341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79091C00-A9BB-4756-B381-F6C066F873BF}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9347,29 +9448,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -9377,17 +9460,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -9395,29 +9472,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -9425,21 +9484,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -9447,13 +9496,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -9461,37 +9508,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -9499,21 +9520,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -9521,25 +9532,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -9547,21 +9544,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -9612,7 +9599,9 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39"/>
+      <c r="C30" s="39" t="s">
+        <v>372</v>
+      </c>
       <c r="D30" s="39" t="s">
         <v>251</v>
       </c>
@@ -9625,16 +9614,28 @@
       <c r="G30" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="D31" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>377</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
@@ -9802,8 +9803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537760F-953E-4B93-950A-0803F5B5CB90}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9909,29 +9910,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -9939,17 +9922,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -9957,29 +9934,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -9987,21 +9946,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -10009,13 +9958,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -10023,37 +9970,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -10061,21 +9982,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -10083,25 +9994,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -10109,21 +10006,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -10172,36 +10059,64 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>367</v>
+      </c>
       <c r="E30" s="39" t="s">
         <v>342</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="E32" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>376</v>
+      </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
@@ -10361,7 +10276,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10467,29 +10382,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -10497,17 +10394,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -10515,29 +10406,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -10545,21 +10418,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -10567,13 +10430,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -10581,37 +10442,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -10619,21 +10454,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -10641,25 +10466,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -10667,21 +10478,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -10732,11 +10533,21 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>366</v>
+      </c>
       <c r="H30" s="39" t="s">
         <v>345</v>
       </c>
@@ -10744,25 +10555,43 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
@@ -10772,7 +10601,9 @@
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="39" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
@@ -10919,7 +10750,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="I31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11025,29 +10856,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -11055,17 +10868,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -11073,29 +10880,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -11103,21 +10892,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -11125,13 +10904,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -11139,37 +10916,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -11177,21 +10928,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -11199,25 +10940,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -11225,21 +10952,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -11288,25 +11005,53 @@
         <v>46075</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -11473,7 +11218,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11579,29 +11324,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -11609,17 +11336,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -11627,29 +11348,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -11657,21 +11360,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -11679,13 +11372,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -11693,37 +11384,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -11731,21 +11396,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -11753,25 +11408,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -11779,21 +11420,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -11844,31 +11475,59 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>364</v>
+      </c>
       <c r="E30" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="39" t="s">
+        <v>373</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -12015,6 +11674,7 @@
       <c r="I46" s="33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C5:I5 C29:I29">
     <cfRule type="timePeriod" dxfId="17" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
@@ -12029,7 +11689,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12135,29 +11795,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -12165,17 +11807,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -12183,29 +11819,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -12213,21 +11831,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -12235,13 +11843,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -12249,37 +11855,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -12287,21 +11867,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -12309,25 +11879,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -12335,21 +11891,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -12404,27 +11950,53 @@
         <v>176</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>372</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -12587,7 +12159,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12693,29 +12265,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -12723,17 +12277,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -12741,29 +12289,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -12771,21 +12301,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -12793,13 +12313,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -12807,37 +12325,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -12845,21 +12337,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -12867,25 +12349,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -12893,21 +12361,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -12956,27 +12414,53 @@
         <v>46096</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>362</v>
+      </c>
       <c r="G30" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -12984,7 +12468,9 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="39" t="s">
+        <v>371</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
@@ -13142,8 +12628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A346DF-507B-4C4C-9B17-31595D3187EE}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13249,29 +12735,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -13279,17 +12747,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -13297,29 +12759,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -13327,21 +12771,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -13349,13 +12783,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -13363,37 +12795,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -13401,21 +12807,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -13423,25 +12819,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -13449,21 +12831,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -13512,27 +12884,53 @@
         <v>46103</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>361</v>
+      </c>
       <c r="G30" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -13540,7 +12938,9 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="39" t="s">
+        <v>370</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
@@ -13699,7 +13099,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13805,29 +13205,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -13835,17 +13217,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -13853,29 +13229,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -13883,21 +13241,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -13905,13 +13253,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -13919,37 +13265,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -13957,21 +13277,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -13979,25 +13289,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -14005,21 +13301,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -14068,25 +13354,53 @@
         <v>46110</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -14253,7 +13567,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14359,29 +13673,11 @@
       <c r="B8" s="16">
         <v>0.375</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -14389,17 +13685,11 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
@@ -14407,29 +13697,11 @@
       <c r="B12" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
@@ -14437,21 +13709,11 @@
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -14459,13 +13721,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -14473,37 +13733,11 @@
       <c r="B18" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
@@ -14511,21 +13745,11 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -14533,25 +13757,11 @@
       <c r="B22" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
@@ -14559,21 +13769,11 @@
       <c r="B24" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
@@ -14622,27 +13822,53 @@
         <v>46117</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>359</v>
+      </c>
       <c r="H30" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -14651,7 +13877,9 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="39" t="s">
+        <v>368</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -15357,6 +14585,508 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>29</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3/Index!R3</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="26">
+        <f>Index!R4+(7*(C3-1))</f>
+        <v>46118</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5+1</f>
+        <v>46119</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:I5" si="0">D5+1</f>
+        <v>46120</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
+        <v>46121</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>46122</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>46123</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4">
+        <v>204</v>
+      </c>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="4">
+        <v>204</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C5</f>
+        <v>46118</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="1">D5</f>
+        <v>46119</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>46120</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
+        <v>46121</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>46122</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>46123</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:I5 C29:I29">
+    <cfRule type="timePeriod" dxfId="11" priority="1" timePeriod="today">
+      <formula>FLOOR(C5,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8BC03E-6434-41C9-9586-1BD2990BD334}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -15380,11 +15110,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.72499999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -15420,31 +15150,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46118</v>
+        <v>46125</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46119</v>
+        <v>46126</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46120</v>
+        <v>46127</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46121</v>
+        <v>46128</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46122</v>
+        <v>46129</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46123</v>
+        <v>46130</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46124</v>
+        <v>46131</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -15466,9 +15196,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -15480,9 +15207,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -15494,7 +15218,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -15502,7 +15225,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -15512,13 +15234,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -15526,13 +15241,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -15542,9 +15250,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -15552,9 +15257,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -15563,13 +15265,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -15580,13 +15280,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -15598,13 +15291,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -15616,9 +15302,6 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -15626,9 +15309,6 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -15638,11 +15318,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -15650,11 +15325,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -15664,9 +15334,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -15674,9 +15341,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -15699,42 +15363,56 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46118</v>
+        <v>46125</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46119</v>
+        <v>46126</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46120</v>
+        <v>46127</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46121</v>
+        <v>46128</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46122</v>
+        <v>46129</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46123</v>
+        <v>46130</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -15898,7 +15576,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="11" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15906,12 +15584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8BC03E-6434-41C9-9586-1BD2990BD334}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0A3FD6-36EA-447C-BE30-A067A2C16121}">
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15934,11 +15612,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.75</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -15974,31 +15652,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46125</v>
+        <v>46132</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46126</v>
+        <v>46133</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46127</v>
+        <v>46134</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46128</v>
+        <v>46135</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46129</v>
+        <v>46136</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46130</v>
+        <v>46137</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46131</v>
+        <v>46138</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -16020,9 +15698,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -16034,9 +15709,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -16048,7 +15720,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -16056,7 +15727,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -16066,13 +15736,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -16080,13 +15743,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -16096,9 +15752,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -16106,9 +15759,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -16117,13 +15767,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -16134,13 +15782,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -16152,13 +15793,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -16170,9 +15804,6 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -16180,9 +15811,6 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -16192,11 +15820,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -16204,11 +15827,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -16218,9 +15836,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -16228,9 +15843,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -16253,52 +15865,70 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46125</v>
+        <v>46132</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46126</v>
+        <v>46133</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46127</v>
+        <v>46134</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46128</v>
+        <v>46135</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46129</v>
+        <v>46136</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46130</v>
+        <v>46137</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46131</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -16452,7 +16082,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="9" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16460,12 +16090,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0A3FD6-36EA-447C-BE30-A067A2C16121}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A39B2-CC50-490D-ADED-A93341B6D6F6}">
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16488,11 +16118,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -16528,31 +16158,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46132</v>
+        <v>46139</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46133</v>
+        <v>46140</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46134</v>
+        <v>46141</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46135</v>
+        <v>46142</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46136</v>
+        <v>46143</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46137</v>
+        <v>46144</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46138</v>
+        <v>46145</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -16574,9 +16204,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -16588,9 +16215,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -16602,7 +16226,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -16610,7 +16233,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -16620,13 +16242,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -16634,13 +16249,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -16650,9 +16258,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -16660,9 +16265,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -16671,13 +16273,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -16688,13 +16288,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -16706,13 +16299,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -16724,9 +16310,6 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -16734,9 +16317,6 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -16746,11 +16326,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -16758,11 +16333,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -16772,9 +16342,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -16782,9 +16349,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -16807,46 +16371,56 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46132</v>
+        <v>46139</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46133</v>
+        <v>46140</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46134</v>
+        <v>46141</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46135</v>
+        <v>46142</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46136</v>
+        <v>46143</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46137</v>
+        <v>46144</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46138</v>
+        <v>46145</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+        <v>355</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -17010,7 +16584,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="9" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17018,12 +16592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A39B2-CC50-490D-ADED-A93341B6D6F6}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A176DF62-278B-4DAE-B3F2-0A6EE1B67276}">
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17046,11 +16620,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.8</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -17086,31 +16660,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46139</v>
+        <v>46146</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46140</v>
+        <v>46147</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46141</v>
+        <v>46148</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46143</v>
+        <v>46150</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46144</v>
+        <v>46151</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46145</v>
+        <v>46152</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -17132,13 +16706,12 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="42" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -17146,9 +16719,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -17159,16 +16729,18 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -17178,13 +16750,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -17192,13 +16757,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17208,9 +16766,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -17218,9 +16773,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17229,13 +16781,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -17246,13 +16796,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -17264,13 +16807,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -17281,20 +16817,18 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -17304,11 +16838,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -17316,11 +16845,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -17330,9 +16854,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -17340,9 +16861,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -17365,617 +16883,67 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46139</v>
+        <v>46146</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46140</v>
+        <v>46147</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46141</v>
+        <v>46148</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46150</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46144</v>
+        <v>46151</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46145</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="today">
-      <formula>FLOOR(C5,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A176DF62-278B-4DAE-B3F2-0A6EE1B67276}">
-  <dimension ref="B2:I46"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22">
-        <v>33</v>
-      </c>
-      <c r="D3" s="24">
-        <f>C3/Index!R3</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26">
-        <f>Index!R4+(7*(C3-1))</f>
-        <v>46146</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5+1</f>
-        <v>46147</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46148</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>46149</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>46150</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>46151</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>46152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="G10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30">
-        <f>C5</f>
-        <v>46146</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46147</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>46148</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="1"/>
-        <v>46149</v>
-      </c>
-      <c r="G29" s="30">
-        <f t="shared" si="1"/>
-        <v>46150</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="1"/>
-        <v>46151</v>
-      </c>
-      <c r="I29" s="30">
-        <f t="shared" si="1"/>
-        <v>46152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="39" t="s">
+        <v>354</v>
+      </c>
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -18143,572 +17111,6 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22">
-        <v>34</v>
-      </c>
-      <c r="D3" s="24">
-        <f>C3/Index!R3</f>
-        <v>0.85</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26">
-        <f>Index!R4+(7*(C3-1))</f>
-        <v>46153</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5+1</f>
-        <v>46154</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46155</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>46156</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>46157</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>46158</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>46159</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <v>204</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>204</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="G10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <v>204</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="4">
-        <v>204</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30">
-        <f>C5</f>
-        <v>46153</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46154</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>46155</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="1"/>
-        <v>46156</v>
-      </c>
-      <c r="G29" s="30">
-        <f t="shared" si="1"/>
-        <v>46157</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="1"/>
-        <v>46158</v>
-      </c>
-      <c r="I29" s="30">
-        <f t="shared" si="1"/>
-        <v>46159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="today">
-      <formula>FLOOR(C5,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749555B-B31D-4B8E-B8B7-3E108EEA2C9C}">
-  <dimension ref="B2:I46"/>
-  <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -18732,11 +17134,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -18772,31 +17174,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46160</v>
+        <v>46153</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46161</v>
+        <v>46154</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46162</v>
+        <v>46155</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46163</v>
+        <v>46156</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46164</v>
+        <v>46157</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46165</v>
+        <v>46158</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46166</v>
+        <v>46159</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -18818,9 +17220,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -18832,9 +17231,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -18848,7 +17244,6 @@
       <c r="C10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="29"/>
       <c r="G10" s="40" t="s">
         <v>75</v>
       </c>
@@ -18858,7 +17253,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -18868,13 +17262,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -18882,13 +17269,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18898,9 +17278,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -18908,9 +17285,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -18919,13 +17293,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -18936,13 +17308,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -18954,13 +17319,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -18974,9 +17332,6 @@
       <c r="C20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="40" t="s">
         <v>46</v>
       </c>
@@ -18986,10 +17341,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
@@ -18998,11 +17352,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -19010,11 +17359,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -19024,9 +17368,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -19034,9 +17375,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -19059,50 +17397,62 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46160</v>
+        <v>46153</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46161</v>
+        <v>46154</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46162</v>
+        <v>46155</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46163</v>
+        <v>46156</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46164</v>
+        <v>46157</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46165</v>
+        <v>46158</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46166</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>46159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>177</v>
+      </c>
       <c r="D30" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+        <v>353</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>353</v>
+      </c>
       <c r="I30" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>348</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -19110,9 +17460,11 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>353</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -19262,7 +17614,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19270,12 +17622,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD202180-028A-4F5D-9F99-8ADE688413BD}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749555B-B31D-4B8E-B8B7-3E108EEA2C9C}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19298,11 +17650,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -19338,31 +17690,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46167</v>
+        <v>46160</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46168</v>
+        <v>46161</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46169</v>
+        <v>46162</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46170</v>
+        <v>46163</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46171</v>
+        <v>46164</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46172</v>
+        <v>46165</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46173</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -19384,9 +17736,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -19398,9 +17747,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -19414,15 +17760,15 @@
       <c r="C10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -19432,13 +17778,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -19446,13 +17785,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -19462,9 +17794,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -19472,9 +17801,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -19483,13 +17809,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -19500,13 +17824,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -19518,13 +17835,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -19538,19 +17848,15 @@
       <c r="C20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -19560,11 +17866,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -19572,11 +17873,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -19586,9 +17882,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -19596,9 +17889,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -19621,56 +17911,70 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46167</v>
+        <v>46160</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46168</v>
+        <v>46161</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46169</v>
+        <v>46162</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46170</v>
+        <v>46163</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46171</v>
+        <v>46164</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46172</v>
+        <v>46165</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46173</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="39" t="s">
-        <v>81</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>352</v>
+      </c>
       <c r="G31" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+        <v>352</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -19824,7 +18128,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19832,12 +18136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA35C4-140E-4363-9BB2-C9823E5610B7}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD202180-028A-4F5D-9F99-8ADE688413BD}">
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19860,11 +18164,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -19900,31 +18204,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46174</v>
+        <v>46167</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46175</v>
+        <v>46168</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46176</v>
+        <v>46169</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46177</v>
+        <v>46170</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46178</v>
+        <v>46171</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46179</v>
+        <v>46172</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46180</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -19946,9 +18250,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -19960,9 +18261,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -19976,17 +18274,13 @@
       <c r="C10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="G10" s="40" t="s">
-        <v>75</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -19996,13 +18290,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -20010,13 +18297,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -20026,9 +18306,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -20036,9 +18313,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -20047,13 +18321,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -20064,13 +18336,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -20082,13 +18347,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -20102,21 +18360,13 @@
       <c r="C20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="40" t="s">
-        <v>46</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -20126,11 +18376,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -20138,11 +18383,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -20152,9 +18392,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -20162,9 +18399,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -20187,62 +18421,80 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46174</v>
+        <v>46167</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46175</v>
+        <v>46168</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46176</v>
+        <v>46169</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46177</v>
+        <v>46170</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46178</v>
+        <v>46171</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46179</v>
+        <v>46172</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
@@ -20386,7 +18638,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:I5 C29:I29">
-    <cfRule type="timePeriod" dxfId="3" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
       <formula>FLOOR(C5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20394,12 +18646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B4AFD-6E8F-4856-8C19-5D1A19F22499}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA35C4-140E-4363-9BB2-C9823E5610B7}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20422,11 +18674,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="24">
         <f>C3/Index!R3</f>
-        <v>0.95</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -20462,31 +18714,31 @@
       <c r="B5" s="15"/>
       <c r="C5" s="26">
         <f>Index!R4+(7*(C3-1))</f>
-        <v>46181</v>
+        <v>46174</v>
       </c>
       <c r="D5" s="26">
         <f>C5+1</f>
-        <v>46182</v>
+        <v>46175</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:I5" si="0">D5+1</f>
-        <v>46183</v>
+        <v>46176</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>46184</v>
+        <v>46177</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>46185</v>
+        <v>46178</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="0"/>
-        <v>46186</v>
+        <v>46179</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" si="0"/>
-        <v>46187</v>
+        <v>46180</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -20508,9 +18760,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -20522,9 +18771,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -20535,16 +18781,18 @@
       <c r="B10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -20554,13 +18802,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -20568,13 +18809,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -20584,9 +18818,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -20594,9 +18825,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -20605,13 +18833,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -20622,13 +18848,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -20640,13 +18859,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -20657,20 +18869,18 @@
       <c r="B20" s="16">
         <v>0.625</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -20680,11 +18890,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -20692,11 +18897,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -20706,9 +18906,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -20716,9 +18913,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -20741,47 +18935,55 @@
       </c>
       <c r="C29" s="30">
         <f>C5</f>
-        <v>46181</v>
+        <v>46174</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" ref="D29:I29" si="1">D5</f>
-        <v>46182</v>
+        <v>46175</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>46183</v>
+        <v>46176</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>46184</v>
+        <v>46177</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" si="1"/>
-        <v>46185</v>
+        <v>46178</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
-        <v>46186</v>
+        <v>46179</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="1"/>
-        <v>46187</v>
+        <v>46180</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+        <v>350</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>350</v>
+      </c>
       <c r="G30" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="33"/>
+        <v>350</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>350</v>
+      </c>
       <c r="I30" s="39" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -20793,6 +18995,515 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="C5:I5 C29:I29">
+    <cfRule type="timePeriod" dxfId="3" priority="1" timePeriod="today">
+      <formula>FLOOR(C5,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B4AFD-6E8F-4856-8C19-5D1A19F22499}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>38</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3/Index!R3</f>
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="26">
+        <f>Index!R4+(7*(C3-1))</f>
+        <v>46181</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5+1</f>
+        <v>46182</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:I5" si="0">D5+1</f>
+        <v>46183</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
+        <v>46184</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>46185</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>46186</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4">
+        <v>204</v>
+      </c>
+      <c r="G9" s="4">
+        <v>204</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="4">
+        <v>204</v>
+      </c>
+      <c r="G19" s="4">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C5</f>
+        <v>46181</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="1">D5</f>
+        <v>46182</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>46183</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
+        <v>46184</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>46185</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>46186</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -21537,7 +20248,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D7" sqref="D7:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21646,9 +20357,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -21660,9 +20368,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -21674,7 +20379,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -21682,7 +20386,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -21692,13 +20395,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -21706,13 +20402,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -21722,9 +20411,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -21732,9 +20418,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -21743,13 +20426,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -21760,13 +20441,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -21778,13 +20452,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -21796,9 +20463,6 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -21806,9 +20470,6 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -21818,11 +20479,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -21830,11 +20486,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -21844,9 +20495,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -21854,9 +20502,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -22095,7 +20740,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D7" sqref="D7:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22204,9 +20849,6 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -22218,9 +20860,6 @@
       <c r="C9" s="4">
         <v>204</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G9" s="4">
         <v>204</v>
       </c>
@@ -22232,7 +20871,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22240,7 +20878,6 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -22250,13 +20887,6 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -22264,13 +20894,6 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="12">
-        <v>115</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>1</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22280,9 +20903,6 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -22290,9 +20910,6 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="3"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22301,13 +20918,11 @@
       <c r="B16" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="F17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -22318,13 +20933,6 @@
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
@@ -22336,13 +20944,6 @@
       <c r="C19" s="4">
         <v>204</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>309</v>
-      </c>
-      <c r="F19" s="29"/>
       <c r="G19" s="4">
         <v>204</v>
       </c>
@@ -22354,9 +20955,6 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22364,9 +20962,6 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
       <c r="G21" s="3"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -22376,11 +20971,6 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -22388,11 +20978,6 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -22402,9 +20987,6 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -22412,9 +20994,6 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>

--- a/Uurrooster.xlsx
+++ b/Uurrooster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2998CA6-A152-4FF8-BC2F-E709AEF2C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDEA5B-3E82-46B9-A6C6-10E30244803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="18" activeTab="20" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="29" activeTab="40" xr2:uid="{28AF1FA9-2C6A-4F87-8A25-50C42A1BDAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -9803,7 +9803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537760F-953E-4B93-950A-0803F5B5CB90}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -11689,7 +11689,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12629,7 +12629,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20739,7 +20739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F103211F-71C8-473B-B6C0-5C3DB387ED5E}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:F25"/>
     </sheetView>
   </sheetViews>
